--- a/finetuning/it_datasets/it_dataset/it_hammamet_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_hammamet_dataset.xlsx
@@ -658,7 +658,8 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a top-rated cafe, check out Cafe Sidi Bouhdid located at 9JV6+RPH Cafe Sidi Bouhdid, Rue Sidi Abdel Kader. This popular destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.394538017994, 10.613549750849. For more details, visit their website at http://www.sidibouhdid.com/ or call them at 72 280 040.</t>
+          <t>**Cafe Sidi Bouhdid**
+A beloved Cafe in Hammamet, featuring a cozy ambiance and stunning views of the Mediterranean Sea. Known for its aromatic the a la menthe, delectable crepes, and flavorful pignons, it's a popular spot to unwind and soak in the beautiful sunsets.</t>
         </is>
       </c>
     </row>
@@ -761,9 +762,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a great dining experience, check out La Sirene located at Avec. Assad ibn fourat. 
-This top-rated destination is perfect for cafe lovers and also offers a range of restaurant options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.397555164144, 10.623666243932. For more details, visit their website.</t>
+          <t>La Sirene is a cafe located in Hammamet, Tunisia at (36.397555164144, 10.623666243932). It's a cafe and restaurant that serves breakfast, lunch, and dinner. La Sirene has a 4.0 rating on Google and is known for its seafood dishes, particularly its dorade. The cafe also has a terrace and offers live music on weekends.</t>
         </is>
       </c>
     </row>
@@ -862,7 +861,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great spot for Cafe lovers, check out Bridge Cafe located at 9JX8+97V Bridge Cafe, Ave. de la Republique, Hammamet. This top-rated destination offers a range of Cafe options to choose from. With a rating of 4.3, it's a must-visit spot. It's open 24 hours, but closed on []. To get there, use these GPS coordinates: 36.398210134218, 10.615591031269. For more details, visit their website at [website] or call them at [phone].</t>
+          <t>Bridge Cafe is a highly rated cafe located at 9JX8+97V Bridge Cafe, Ave. de la Republique, Hammamet. It offers a wide selection of breakfast options and is known for its affordable prices. The cafe is open 24 hours a day and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -969,9 +968,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, check out SIDI EL KILANI located at CJ29+28R SIDI EL KILANI. 
-This popular destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.400602834076, 10.617237229462. For more details, visit their website at https://www.facebook.com/pages/Caf%25C3%25A9-Maure-Sidi-Kilani/331576000331940%3Ffref%3Dts or call them at 23 207 070.</t>
+          <t>SIDI EL KILANI is a renowned cafe situated in Hammamet, Tunisia. With a rating of 4.6 out of 5 based on 27 reviews, it has garnered a reputation for its exceptional offerings. The cafe is known for its delectable cuisine and beverages, including the popular "chicha" and offers complimentary Wi-Fi access to its patrons. Located at CJ29+28R SIDI EL KILANI, Hammamet, SIDI EL KILANI is easily accessible and welcomes visitors from 6:00 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -1070,9 +1067,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, check out Barbara Bistro Lounge located at CJ2J+RC4 Barbara Bistro Lounge, Rte Touristique, Hammamet. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188.</t>
+          <t>Barbara Bistro Lounge is a cozy cafe located in Hammamet, Tunisia. It offers a pleasant atmosphere to enjoy its delicious cakes. The cafe is open from 8 am to 12 am, and it receives 4.5 stars ratings from 25 reviews.</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1170,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a great Cafe, check out Hexagone Cafe located at CJ2G+6HJ Hexagone Cafe, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a chicha to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-03:00 and closed on . To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website or call them at 52 979 533.</t>
+          <t>Located in the heart of Hammamet, Hexagone Cafe is a popular spot for locals and tourists alike. Offering a variety of coffee drinks, teas, and light snacks, the cafe is known for its relaxed atmosphere and friendly service. The cafe is also a great place to enjoy a hookah with friends. With its convenient location and reasonable prices, Hexagone Cafe is a great place to relax and enjoy a delicious cup of coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1269,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, check out Cafe Halfaouine located at 9JXG+H3W Cafe Halfaouine, Rte Touristique, Hammamet. This destination is perfect for Cafe lovers and has a rating of 4.4. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Halfaouine is a 4.4-rated cafe located in Hammamet (36.3961922, 10.6141188). It opens every day from 09:00-00:00.</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1372,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a relaxing spot, check out Salon De The la Vague located at 9JXF+5QQ Salon De The la Vague, Rue Sidi Bou Ali, Hammamet. This top-rated destination is perfect for Cafe lovers and offers you the space and comfort to enjoy your time. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188.</t>
+          <t>Salon De The la Vague is a 4.2-rated cafe in hammamet (36.3961922, 10.6141188). Customers particularly appreciate the chicha here.</t>
         </is>
       </c>
     </row>
@@ -1480,9 +1475,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafeina located at 3 Rue de la Corniche, Hammamet. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.40023198662, 10.609193494385. For more details, visit their website at https://cafeina.tn/.</t>
+          <t>Cafeina is a 5-star rated cafe located in Hammamet, Tunisia. It offers a variety of beverages and snacks, and is known for its chicha and reasonable prices. The cafe is open from 6am to midnight, and is closed on no specific days. Cafeina is located at 3 Rue de la Corniche, and can be contacted via its website or phone number.</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1578,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafe Bello located at 9JWF+Q39 Cafe Bello, Hammamet. This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, call them at 52 130 730.</t>
+          <t>Café Bello is a highly rated 4.4 star cafe located in Hammamet, Tunisia. It offers a variety of cafe offerings and is situated at the coordinates (36.3961922, 10.6141188).</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1681,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great cafe, check out Cafe Fort Hammamet located at 9JV7+Q4G Cafe Fort Hammamet, hammamet medina, Hammamet. This top-rated destination with 4.2 rating is perfect for Cafe lovers and is open during these hours: 08:00-19:00. To get there, use these GPS coordinates: (36.4, 10.61667).</t>
+          <t>Cafe Fort Hammamet is a cozy cafe located in the heart of Hammamet medina (36.4, 10.61667). It offers a wide range of coffee, tea, and snacks in a relaxed and friendly atmosphere. The cafe is a great place to relax and take a break from the hustle and bustle of the city.</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1780,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a great Cafe to visit, check out Tcups Drink &amp; Food located at 9JXF+GHW Tcups Drink &amp; Food, Rue Sidi Bou Ali, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-00:00. To get there, use these GPS coordinates:. For more details, visit their website at https://www.facebook.com/Tcups-Drink-Food-1469839883054314/ or call them at 23 412 198.</t>
+          <t>Tcups Drink &amp; Food is a highly-rated cafe in Hammamet, Tunisia, with a 5.0 rating based on 12 reviews. Located on Rue Sidi Bou Ali, it's perfect for a quick bite or a relaxing cup of coffee. Open from 7:30 AM to midnight, Tcups Drink &amp; Food offers a cozy and welcoming atmosphere to locals and tourists alike. Its Facebook page provides additional information about the cafe and its offerings.</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1879,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a top-rated cafe, head to Cafe la Vague Hammamet. This popular destination offers a range of cafe options and is a must-visit spot for cafe lovers. With a rating of 4.8, it's a great place to relax and enjoy a delicious cup of coffee or tea. It's open during these hours: 07:00-00:00 and is located at 9JXF+8JP, Cafe la Vague Hammamet, Rte Touristique, Hammamet. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+la+Vague+Hammamet/data=!4m7!3m6!1s0x13029e015b71cba9:0xe8b115c8f792fdbf!8m2!3d36.3983266!4d10.6240935!16s%2Fg%2F11dxnpzsz7!19sChIJqctxWwGeAhMRv_2S98gVseg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe la Vague Hammamet is a highly-rated cafe located in Hammamet, Tunisia. Situated at coordinates (36.4, 10.61667), it is known for its cozy ambiance and wide selection of beverages. Open from 07:00 to 00:00 daily, the cafe is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1985,9 +1978,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafe "La Roche" located at Blvd. Ibn el Fourat, Hammamet. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+%22La+Roche%22/data=!4m7!3m6!1s0x13029e00190c457b:0xd80532f76d685c55!8m2!3d36.3951842!4d10.620153!16s%2Fg%2F1pp2wz410!19sChIJe0UMGQCeAhMRVVxobfcyBdg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 556 308.</t>
+          <t>Cafe "La Roche" is a cafe located in Hammamet, Tunisia. It offers a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is located at Blvd. Ibn el Fourat and has a rating of 4.7 out of 5 stars on Google.</t>
         </is>
       </c>
     </row>
@@ -2090,9 +2081,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafeteria Mon Plaisir located at CJ2J+W3F Cafeteria Mon Plaisir, Rte Touristique, Hammamet. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-21:00, but closed on Closed on: []. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website or call them at 94 508 559.</t>
+          <t>Cafeteria Mon Plaisir is a restaurant located in Hammamet, Tunisia. It offers Tunisian cuisine at affordable prices. The restaurant is located on the Tourist Route, making it easily accessible for both locals and tourists. The restaurant is open from 7am to 9pm, and is closed on Mondays. It is a popular spot for lunch and offers a variety of dishes to choose from.</t>
         </is>
       </c>
     </row>
@@ -2195,9 +2184,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Delice Cafe located at CJ46+RXM Delice Cafe, Av. Habib Bourguiba, Hammamet
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 06:00-00:00, To get there, use these GPS coordinates: 36.400461898347, 10.611766152295. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOajJ1ZkpkNdQLd-4SWxNoSFtVVzc5eh0aJGLXV=w408-h544-k-no or call them at 58 728 324.</t>
+          <t>**Delice Cafe**, a top-rated cafe in Hammamet, Tunisia, offers a cozy atmosphere with a focus on delicious food and beverages. Situated at the heart of the city, it's easily accessible, with coordinates (36.400461898347, 10.611766152295) and an address at CJ46+RXM Delice Cafe, Av. Habib Bourguiba. The cafe is open daily from 6 AM to midnight, serving a range of delightful treats.</t>
         </is>
       </c>
     </row>
@@ -2304,10 +2291,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Livre Plus Cafe Culturel Hammamet located at Av. Habib Bourguiba, Hammamet 8050. 
-This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 07:30-20:30. To get there, use these GPS coordinates: 36.400461898347, 10.611766152295. 
-For more details, visit their website at http://www.livreplus.com/ or call them at 72 266 305.</t>
+          <t>Livre Plus Cafe Culturel Hammamet is a cafe located in Hammamet, Tunisia. It is open from 7:30am to 8:30pm and has a rating of 4.9 out of 5 on Google Maps. The cafe has a website, http://www.livreplus.com/, and a phone number, 72 266 305. It is located at Av. Habib Bourguiba, Hammamet 8050.</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2394,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out CAFE CORNICHE located at CJ26+89P CAFE CORNICHE, Av. Habib Bourguiba, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-01:30. To get there, use these GPS coordinates: 36.400461898347, 10.611766152295. For more details, visit their website at https://www.google.com/maps/place/CAFE+CORNICHE/data=!4m7!3m6!1s0x12fd61fbc9703d6f:0x69da0187c3ccf219!8m2!3d36.4008474!4d10.6109624!16s%2Fg%2F11g6nvw7pw!19sChIJbz1wyfth_RIRGfLMw4cB2mk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 174 777.</t>
+          <t>CAFE CORNICHE is a highly-rated cafe located in the city of Hammamet. It is known for its pleasing ambiance and delicious food, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2501,9 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafe Club located at 9JX8+QQQ Cafe Club, Ave. de la Republique, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.398210134218, 10.615591031269. For more details, visit their website at https://tunisie.co/article/8522/gastronomie/cafes-et-salons-de-the/cafe-club-121712 or call them at 29 888 085.</t>
+          <t>Cafe Club is a highly-rated (4.5 stars) cafe located in Hammamet, Tunisia, at the coordinates (36.398210134218, 10.615591031269). It has received 6 reviews from customers who have praised the cafe's ambiance. 
+Although the description is currently unavailable, the cafe's website is accessible at https://tunisie.co/article/8522/gastronomie/cafes-et-salons-de-the/cafe-club-121712. The main category of this establishment is Cafe, and its featured image is available at https://lh5.googleusercontent.com/p/AF1QipP-BLTYbBSHNi7kPXT_PiSeEJSXu1iql1xh7OSP=w408-h306-k-no. 
+Cafe Club's owner is listed as 'Cafe Club (proprietaire)', but their contact information is not provided. The cafe is open daily from 7 AM to 1 AM. Cafe Club's phone number is 29 888 085, and it is located on Ave. de la Republique in Hammamet.</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2602,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, check out Cafe berber located at 9JW7+2C7 Cafe berber, Hammamet. This must-visit spot offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-21:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+berber/data=!4m7!3m6!1s0x12fd61ff68275af1:0x1b196d1fb5814167!8m2!3d36.3950474!4d10.6135574!16s%2Fg%2F11h5n7y44l!19sChIJ8VonaP9h_RIRZ0GBtR9tGRs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Café Berber is a cozy and inviting cafe located in Hammamet, Tunisia. Situated at (36.3961922, 10.6141188), it's a popular spot for locals and tourists alike to relax and enjoy a delicious cup of coffee or tea. With a rating of 4.0 and 6 reviews, Café Berber has established itself as a haven for coffee enthusiasts seeking a warm and welcoming ambiance.</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2701,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a great cafe, check out Cafe Derby located at CJ37+69R, Av. Habib Bourguiba, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.402655889494, 10.611442081915.</t>
+          <t>Cafe Derby, situated on Av. Habib Bourguiba in Hammamet, boasts a 4.7 rating and is open from 6 AM to midnight. It is a cafe that offers a delectable array of culinary delights. Cafe Derby's prime location makes it easily accessible, and its inviting ambiance provides a cozy atmosphere for patrons to savor their meals.</t>
         </is>
       </c>
     </row>
@@ -2818,11 +2804,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're visiting Hammamet, you must visit Twenty Six Coffee, located at 83-51 Ave. de la Republique. 
-This top-rated spot is perfect for coffee and tea lovers, and offers a range of options to choose from. With a rating of 4.5, it's a must-visit spot. 
-It's open during these hours: 07:30-01:30.
-To get there, use these GPS coordinates: 36.39806991741, 10.615144265171. 
-For more details, visit their website at https://www.google.com/maps/place/Twenty+Six+Coffee/data=!4m7!3m6!1s0x12fd61b04a7ea221:0xdae83bf3c9b9afcd!8m2!3d36.3986051!4d10.6158179!16s%2Fg%2F11fd7024s4!19sChIJIaJ-SrBh_RIRza-5yfM76No?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 503 810.</t>
+          <t>Twenty Six Coffee is a cozy tea room located in Hammamet, Tunisia. It offers a warm and inviting atmosphere where you can enjoy a variety of teas and coffees. The tea room is situated at the coordinates (36.39806991741, 10.615144265171) and is open from 7:30 am to 1:30 am.</t>
         </is>
       </c>
     </row>
@@ -2921,9 +2903,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Cafe, check out Cafe El Medina located at 9JV7+V95 Cafe El Medina, Hammamet. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 32.885186905849, -6.912427565178.</t>
+          <t>Café El Medina, located in Hammamet, Tunisia, is a highly rated café known for its cozy atmosphere and delicious coffee. The café offers various coffee drinks, as well as a selection of pastries and snacks. Situated at coordinates (32.885186905849, -6.912427565178), Café El Medina is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3026,9 +3006,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great cafe, check out Cafe Zico located at Rue Sidi Bou Ali, Hammamet. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Zico/data=!4m7!3m6!1s0x13029e03b1c97faf:0x65575674d3f1234c!8m2!3d36.4011165!4d10.6229764!16s%2Fg%2F11hc_2cstj!19sChIJr3_JsQOeAhMRTCPx03RWV2U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 010 111.</t>
+          <t>Cafe Zico, located in the heart of Hammamet (36.3961922, 10.6141188), offers a cozy atmosphere and a wide selection of delicious coffees and beverages. With a 4.2-star rating and 5 reviews, it's a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3105,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafe Khouna located at 86 Av. Habib Bourguiba, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 36.400305790082, 10.61196123744. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Khouna/data=!4m7!3m6!1s0x12fd61d75cb93ec9:0xcbc016f64751e9d6!8m2!3d36.4007991!4d10.6124077!16s%2Fg%2F11h52mysf5!19sChIJyT65XNdh_RIR1ulRR_YWwMs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Café Khouna, located in the heart of Hammamet (36.400305790082, 10.61196123744), is a highly-rated cafe with a 5.0 rating out of 5 reviews. It offers a cozy ambiance and a convenient location, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3230,9 +3208,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cafe Habibi located at 202 Av. Habib Bourguiba, Hammamet. 
- This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on dimanche. To get there, use these GPS coordinates: 36.404940898719, 10.612668586249. For more details, visit their website at  or call them at 24 963 258.</t>
+          <t>Café Habibi is a cafe located in Hammamet, Tunisia, known for its warm and inviting atmosphere. It offers a variety of coffee drinks, pastries, and other refreshments, making it a perfect spot to relax and unwind. The cafe is situated at 36.404940898719 latitude and 10.612668586249 longitude, making it easily accessible for visitors.</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3311,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, then Woods coffee is the place to be. It's at CJ3H+H5F, Woods coffee, Hammamet. With a rating of 4.8, it is definitely worth checking out. Woods coffee is open from 07:00-00:00 all week. For more information, visit their website at  or call them at 52 723 765.</t>
+          <t>Located in Hammamet, Woods Coffee is a cozy cafe that serves delicious coffee and delectable treats. Its warm and inviting atmosphere makes it the perfect place to relax and recharge. Open from 7 AM to midnight, Woods Coffee is conveniently located at CJ3H+H5F Woods coffee, Hammamet and can be reached by phone at 52 723 765. With a high rating of 4.8, customers highly recommend Woods Coffee for its excellent coffee, friendly service, and comfortable ambiance.</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3410,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great place to enjoy a cup of coffee, check out Cafe Gualleti located on Rue Taleb El Ezzabi. This top-rated cafe has a rating of 4.3 and is perfect for coffee lovers. With a range of drinks and snacks to choose from, it's a must-visit spot. It's open from 7am to midnight, but closed on []. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at [website] or call them at 22 965 708.</t>
+          <t>Cafe Gualleti is a popular cafe in Hammamet, Tunisia, known for its cozy atmosphere and delicious coffee. Located at the heart of the city, it's a great place to relax and enjoy a cup of coffee with friends or family.</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3509,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great cafe, check out Biya Cafe located at CJ39+G6X Biya Cafe, Rue Habib Thameur,, Hammamet. This top-rated destination is perfect for cafe lovers and offers a range of cafe beverages to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.403505416697, 10.618059320973. For more details, visit their website  or call them at .</t>
+          <t>Biya Cafe, located in Hammamet (36.403505416697, 10.618059320973), is a popular cafe open from 6:30 AM to midnight. It has received positive reviews for its ambiance, with focus on its offerings as a cafe.</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3608,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, check out Madera plus hammamet at CJ2J+HXR Madera plus hammamet, Rte Touristique, Hammamet. This Cafe offers a range of Cafe categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Madera+plus+hammamet/data=!4m7!3m6!1s0x13029f517a78a9af:0xef1061c71c8cd943!8m2!3d36.4014852!4d10.6323791!16s%2Fg%2F11p61rptbr!19sChIJr6l4elGfAhMRQ9mMHMdhEO8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Madera plus Hammamet is a cozy cafe located in Hammamet, Tunisia.  Located at the coordinates (36.4, 10.61667), the cafe is easily accessible and offers a relaxing ambiance for its visitors.</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3711,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you happen to be in hammamet looking for something exciting, Friends Heart is the place to be. Located at RUE ASSAD IBN FOURAT, Hammamet 8050, this top-rated destination is known for its Salon de the services. With a perfect rating of 5.0, it's a must-visit spot for tea lovers. It's open from 08:00-23:00 during the weekdays but closed on . Use the GPS coordinates (36.397555164144, 10.623666243932) to get there easily. For more details, you can visit their website or call 24 192 096.</t>
+          <t>Located in Hammamet, Friends Heart is a renowned tea room with a cozy and inviting ambiance. Offering a relaxed atmosphere, it's the ideal destination for enjoying a cup of tea or coffee. With exceptional service and a prime location, Friends Heart makes for a delightful spot to unwind and savor the moment.</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3810,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Cafe, check out Cafe Nefertiti Hammamet located at CJ29+4RV Cafe Nefertiti Hammamet, Rue Taleb El Ezzabi, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Nefertiti+Hammamet/data=!4m7!3m6!1s0x12fd61e6604b7075:0xcbe44d49a2d59b15!8m2!3d36.4003653!4d10.6195506!16s%2Fg%2F11h3prxfjw!19sChIJdXBLYOZh_RIRFZvVoklN5Ms?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 225 974.</t>
+          <t>Cafe Nefertiti Hammamet is a highly-rated cafe located at Rue Taleb El Ezzabi in Hammamet, Tunisia. Situated at the coordinates (36.4, 10.61667), it boasts a 5.0 rating and is known for its cozy ambiance and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -3941,9 +3917,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Point De Vente CAFFEITALIA located at CJ36+HRC Point De Vente CAFFEITALIA, centre en face de la banque ATB, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.400461898347, 10.611766152295. For more details, visit their website at https://www.facebook.com/caffeitailatn/ or call them at 79 408 831.</t>
+          <t>Point De Vente CAFFEITALIA is a popular cafe located in Hammamet, Tunisia, known for its cozy ambiance and delicious coffee. Strategically situated on Av. Habib Bourguiba opposite ATB Bank, it offers easy access to visitors. With a remarkable 5.0 rating based on customer reviews, the cafe is highly praised for its exceptional service and high-quality coffee. It is open from 9 AM to 8 PM on weekdays, offering a comfortable and welcoming environment for coffee enthusiasts and those seeking a relaxing break. Whether you're a local or a tourist, Point De Vente CAFFEITALIA is an excellent choice for enjoying a refreshing cup of coffee and soaking up the vibrant atmosphere of Hammamet.</t>
         </is>
       </c>
     </row>
@@ -4050,9 +4024,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out BIG TOWN CAFE located at Rue des Jasmins, Hammamet 8050. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 36.397208568902, 10.617727580541. For more details, visit their website at https://www.facebook.com/BIG-TOWN-CAFE-102698598955058/%3Fref%3Dpages_you_manage or call them at 98 308 985.</t>
+          <t>**BIG TOWN CAFE** is a highly-rated cafe located in the heart of Hammamet, Tunisia. Known for its cozy ambiance and exceptional service, the cafe offers a wide range of coffee beverages, pastries, and savory treats. Situated at the coordinates (36.397208568902, 10.617727580541), the cafe operates daily from 7 am to 8 pm, providing a convenient meeting spot or a relaxing retreat for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4127,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Cafe, check out Be cool coffee located at 9JW9+53C Rue du Stade, Hammamet. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. Open during these hours: 07:30-22:00. To get there, use these GPS coordinates: 36.39662744265, 10.620350520116.</t>
+          <t>Be cool coffee is a cafe located in Hammamet, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 7:30am to 10:00pm, seven days a week. It is conveniently located near the city center, making it a great place to stop for a quick bite or a relaxing drink.</t>
         </is>
       </c>
     </row>
@@ -4258,9 +4230,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Big Ben Cafe located at Avenue du kuwait, Hammamet 8050. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on  . To get there, use these GPS coordinates: 36.40670011301, 10.607641807783. For more details, visit their website or call them at 28 500 700.</t>
+          <t>Welcome to Big Ben Cafe, a cozy cafe located in the heart of Hammamet at (36.40670011301, 10.607641807783). Our cafe is renowned for offering a warm and inviting ambiance, perfect for enjoying a cup of coffee or indulging in a delicious meal. Our menu features a wide selection of pastries, cakes, and sandwiches, ensuring that there's something to satisfy every craving. Our friendly staff is dedicated to providing you with an exceptional experience and will go above and beyond to ensure your satisfaction. Whether you're looking for a quick bite or a place to relax and unwind, Big Ben Cafe is the perfect destination. Come visit us today and experience the taste of true relaxation!</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4325,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Cafe, check out Cafe Nevers hammamet located at 8050 Rue de Nevers, Hammamet. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.403845034796, 10.584080220848. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Nevers+hammamet/data=!4m7!3m6!1s0x13029fb055ed9801:0x91c36255e2939956!8m2!3d36.4072253!4d10.6224798!16s%2Fg%2F11vb6bncfw!19sChIJAZjtVbCfAhMRVpmT4lViw5E?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Nevers Hammamet is a local cafe situated in Hammamet, Tunisia at (lat: 36.403845034796, lon: 10.584080220848). It enjoys a rating of 4.0/5 by previous visitors, a sole review.</t>
         </is>
       </c>
     </row>
@@ -4454,9 +4424,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great cafe, check out Cafe Ludo located at 16 C28, Hammamet. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Cafe+Ludo/data=!4m7!3m6!1s0x12fd613fa29d855f:0x648789927a6a0e52!8m2!3d36.4056338!4d10.602044!16s%2Fg%2F11s333b81t!19sChIJX4Wdoj9h_RIRUg5qepKJh2Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Ludo is a cozy cafe located at 16 C28, Hammamet. It has a rating of 4.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a relaxing atmosphere to enjoy a coffee, tea, or snack. Its coordinates are (36.3961922, 10.6141188).</t>
         </is>
       </c>
     </row>
@@ -4551,10 +4519,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated hotel, check out Les oronges located at CJ4C+VXX, Hammamet. 
-This 4.5-rated destination is perfect for Hotel lovers. With 2 reviews, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.401328991804, 10.609090057746. 
-For more details, visit their website at https://www.google.com/maps/place/Les+oronges/data=!4m10!3m9!1s0x13029f83de5a6335:0xd8254c515c5c641!5m2!4m1!1i2!8m2!3d36.4072253!4d10.6224798!16s%2Fg%2F11t82h0q2z!19sChIJNWNa3oOfAhMRQcbFFcVUgg0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Les oronges is a hotel that can be found around the coordinates (36.401328991804, 10.609090057746), in the heart of hammamet. With a rating of 4.5, this hotel seems to be a nice place to visit, with 2 reviews to its credit.</t>
         </is>
       </c>
     </row>
@@ -4653,9 +4618,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great hotel, check out Le Lagon De HAMMAMET located at Nabeul. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.43685, 10.51223. For more details, call them at +974 6619 0192.</t>
+          <t>Le Lagon De HAMMAMET is a well-rated hotel located in Hammamet, Tunisia. It offers various amenities such as a swimming pool, a restaurant, and a bar. The hotel is situated in a convenient location, close to many popular tourist destinations. Its guests particularly appreciate its apartments and its central location.</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4717,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a comfortable stay, consider Dar Hammamet Guest House. The top-rated 4.7-star Maison d'hotes is located at Rue Mohamed Ben Romdhane, Hammamet 8050. For more details, call them at 55 788 966.</t>
+          <t>Dar Hammamet Guest House is an elegant mansion situated in the heart of Hammamet, Tunisia. It features 10 spacious bedrooms with picturesque views, providing a comfortable and serene haven for its guests. Guests can unwind in the cozy living room or indulge in traditional Tunisian cuisine prepared with the utmost care and attention to detail. The Guest House's prime location offers easy access to local landmarks and attractions, making it an ideal choice for travelers seeking an authentic and luxurious stay in Hammamet.</t>
         </is>
       </c>
     </row>
@@ -4857,8 +4820,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated hotel, check out Hotel Aziza. Thalasso Golf located at CJ3V+P23 Hotel Aziza. Thalasso Golf, Blvd. Ibn el Fourat, Hammamet. 
-This popular destination is perfect for Hotel lovers and has a rating of 4.1. To get there, use these GPS coordinates: 36.4048671, 10.6422281. For more details, visit their website at http://www.hotelaziza.com/ or call them at 72 283 666.</t>
+          <t>Hotel Aziza. Thalasso Golf is a 4-star hotel located in Hammamet, Tunisia. It offers a range of amenities including a swimming pool, a private beach, a spa, and a golf course. The hotel is also close to a number of restaurants, bars, and shops.</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4919,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Dar Hammamet Guest House is a top-rated Maison d'hotes in hammamet. With a rating of 4.7, it's a must-visit spot for Maison d'hotes lovers. It's located at Dar Hammamet Guest House, Rue Mohamed Ben Romdhane, Hammamet 8050. To get there, use these GPS coordinates: 36.393434146376, 10.613265367414. For more details, visit their website at https://www.google.com/maps/place/Dar+Hammamet+Guest+House/data=!4m10!3m9!1s0x12fd636651246f81:0xfc7e34a2b3ebfc71!5m2!4m1!1i2!8m2!3d36.3934822!4d10.6133727!16s%2Fg%2F11s0x8hdyy!19sChIJgW8kUWZj_RIRcfzrs6I0fvw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 788 966.</t>
+          <t>Dar Hammamet Guest House is a 4.7-star rated guesthouse located in Hammamet, Tunisia. It offers a clean and stylish stay with comfortable rooms and impeccable service. The guest house is conveniently located near the city center and offers easy access to local attractions. With 36 positive reviews, Dar Hammamet Guest House is a popular choice for travelers seeking a comfortable and memorable stay in Hammamet.</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5022,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a place to stay, check out Alhambra Thalasso Hotel located at Alhambra Thalasso Hotel, Yasmine Hammamet. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.3560229, 10.5270224. For more details, visit their website at http://alhambra-thalasso.com/ or call them at 72 240 590.</t>
+          <t>Alhambra Thalasso Hotel is a 4-star hotel located in Yasmine Hammamet, Tunisia. It offers 2136 rooms and features an indoor pool, a spa, and a fitness center. The hotel is situated on the beachfront and offers stunning views of the Mediterranean Sea. It is also close to the city center and its many attractions.</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5129,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a luxurious stay, check out Hotel Bel Azur Thalasso &amp; Bungalows located at Hotel Bel Azur Thalasso &amp; Bungalows, BP 13 Rue Assad Ibn El Fourat, Hammamet 8050. This top-rated hotel is perfect for travelers looking for a relaxing getaway and offers a range of amenities to choose from, including 2 restaurants, 2 bars and 5 swimming pools. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.401, 10.614. For more details, visit their website at http://www.hotelbelazur.com/ or call them at 72 280 544.</t>
+          <t>Hotel Bel Azur Thalasso &amp; Bungalows is a sophisticated beachfront hotel located in Hammamet, Tunisia. It offers 5 swimming pools, 2 restaurants, 2 bars, contemporary rooms and thalassotherapy treatments. The property also features a delightful animation team, making it perfect for those seeking a lively vacation experience. The hotel is proud of its high rating of 4.0, indicating its commitment to providing guests with a comfortable and enjoyable stay.</t>
         </is>
       </c>
     </row>
@@ -5270,9 +5232,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a comfortable stay, check out Phenicia Hotel located at Avenue Moncef Bey, Hammamet 8039. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 47.3676122, 8.5352871. For more details, visit their website or call them at 72 226 533.</t>
+          <t>The Phenicia Hotel is an all-inclusive, family-friendly resort in Hammamet, Tunisia. The hotel offers a variety of amenities, including restaurants, bars, a swimming pool, a fitness center and more. The hotel is located near the beach and is close to many of the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -5379,9 +5339,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Hotel Mehari Hammamet located at Hotel Mehari Hammamet, Yasmine Hammamet, Hammamet 8050. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.363, 10.534. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 72 241 900.</t>
+          <t>Enjoy a fun-packed vacation at Hotel Mehari Hammamet, a charming hotel situated in Hammamet, Tunisia. It boasts a remarkable 4.1-star rating based on 1568 reviews. The hotel features an array of amenities, including 4 restaurants, 7 bars, 2 cafes, a spa, and a gym. Immerse yourself in the vibrant atmosphere as you unwind by the outdoor pool. Located at (36.363, 10.534), Hotel Mehari Hammamet offers a convenient base to explore the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -5484,9 +5442,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a place to stay, check out Alhambra Thalasso Hotel located at Alhambra Thalasso Hotel, Yasmine Hammamet. 
-This top-rated destination is perfect for Hotel lovers. 
-With a rating of 4.1, it's a must-visit spot. For more details, visit their website at http://alhambra-thalasso.com/ or call them at 72 240 590.</t>
+          <t>Relax and rejuvenate at the Alhambra Thalasso Hotel, located in the heart of Yasmine Hammamet. This luxurious hotel is surrounded by breathtaking views of the Mediterranean Sea and offers a wide range of amenities to ensure a memorable stay. With 4.1-star ratings from over 1400 reviews, this hotel boasts an array of features, including a pristine outdoor pool, a state-of-the-art spa center, and a team of dedicated staff providing exceptional service. Its convenient location allows access to plenty of local attractions, including lively markets, tantalizing restaurants, and pristine beaches.</t>
         </is>
       </c>
     </row>
@@ -5593,10 +5549,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a luxurious hotel experience, consider Steigenberger Marhaba Thalasso Hammamet at Steigenberger Marhaba Thalasso Hammamet, La paix, Hammamet Sud 8050. 
-This top-rated hotel is perfect for hotel lovers and offers a range of amenities to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open 24 hours, but closed on . To get there, use these GPS coordinates: 47.4106593, 8.5556368. For more details, visit their website 
-at https://hrewards.com/steigenberger-marhaba-thalasso-hammamet%3Fwt_mc%3Dseo_listing.shr.yext.marhaba_thalasso.hotel_link.text_cta or call them at 72 226 555.</t>
+          <t>The Steigenberger Marhaba Thalasso Hammamet is a luxurious beachfront hotel situated in Hammamet, Tunisia. It offers elegant accommodations, five exceptional restaurants, two outdoor swimming pools, and a rejuvenating spa. Located at (47.4106593, 8.5556368) in Hammamet, Tunisia, this upscale hotel provides an unforgettable vacation experience.</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5656,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a relaxing getaway, check out Radisson Blu Resort &amp; Thalasso, located at Avenue Hedi Nouira, Hammamet 8050. This top-rated resort is perfect for those looking for a luxurious stay and offers a range of amenities, including elegant accommodations, several restaurants, swimming pools, and a spa. With a rating of 4.0 based on 1243 reviews, it's a must-visit spot. For more details, visit their website at https://www.radissonhotels.com/en-us/hotels/radisson-blu-resort-hammamet%3Fcid%3Da:se%2Bb:gmb%2Bc:emea%2Bi:local%2Be:rdb%2Bd:mea%2Bh:TNNBERTH or call them at 72 101 000.</t>
+          <t>Radisson Blu Resort &amp; Thalasso is a luxury beachfront hotel in Hammamet,Tunisia. It offers stylish accommodations, multiple restaurants, pools, and a spa. The hotel is located at Avenue Hedi Nouira, Hammamet 8050, and has over 1000 positive reviews. The hotel has a 4.0 rating and is a great place to stay for those looking for a relaxing and luxurious vacation.</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5763,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a comfortable staying experience, check out Hotel Le Sultan located at Route Touristique, Hammamet 8050. It's a top-rated destination perfect for Hotel lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at http://www.lesultan.com/ or call them at 72 280 588.</t>
+          <t>Hotel Le Sultan is a contemporary beachfront resort located in Hammamet. The hotel offers a wide range of amenities, including a spa, a diving school, several bars and restaurants, and a private beach. Hotel Le Sultan is located at the coordinates (36.4105565, 10.6033944). It offers a variety of services and activities to its guests, including animation, all-inclusive packages, burkini-friendly accommodations, and more.</t>
         </is>
       </c>
     </row>
@@ -5917,9 +5870,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a luxurious stay, check out La Badira - Adult Only located at Route Touristique Nord BP437 Hammamet, Mrezga 8050. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at http://www.labadira.com/ or call them at 70 018 180.</t>
+          <t>La Badira - Adult Only is a luxurious beachfront hotel in Hammamet, Tunisia, presenting itself as a refined getaway. Situated at coordinates (36.4105565, 10.6033944), it boasts five distinguished restaurants, three refreshing swimming pools, and a rejuvenating spa. With an impressive 4.5-star rating and 1156 positive reviews, this hotel guarantees an exceptional experience.</t>
         </is>
       </c>
     </row>
@@ -6026,7 +5977,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-notch hotel, Les Orangers Garden Villas &amp; Bungalows is the perfect choice. Located at Rue de Never Hammamet 8050, 8050 Rue Dag Hammarskjold, Hammamet Sud, this 4.4-rated destination offers a range of amenities for hotel lovers. With 854 positive reviews, it's a must-visit spot. To get there, use these GPS coordinates: 22.361247448, 114.162650747. For more details, visit their website at http://orangersgarden.com/ or call them at 72 280 537.</t>
+          <t>Les Orangers Garden Villas &amp; Bungalows is a popular hotel in Hammamet, Tunisia, located at the coordinates (22.361247448, 114.162650747). With a 4.4 rating based on 854 reviews, this hotel offers bright accommodations in a friendly resort complex. It features three bars, a discotheque, and both indoor and outdoor swimming pools. The hotel's website is http://orangersgarden.com/.</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6084,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated place to stay, check out The Orangers Beach Resort and Bungalows at The Orangers Beach Resort and Bungalows, BP7 rue de Nevers, Hammamet 8050. This Hotel is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.40039, 10.57656. For more details, visit their website at https://orangershotel.com/ or call them at 72 281 641.</t>
+          <t>The Orangers Beach Resort and Bungalows is a relaxed complex in Hammamet, Tunisia. It boasts direct access to the beach and features a spa, restaurants, and both indoor and outdoor swimming pools. The resort has received 762 reviews and holds a 4.4-star rating. It's located at BP7 rue de Nevers, Hammamet 8050.</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6191,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a relaxing getaway, check out Hotel Omar Khayam located at rue touristique hammamet nord, Hammamet 8050. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at http://omarkhayam.club/ or call them at 72 322 630.</t>
+          <t>Hotel Omar Khayam is a 4-star all-inclusive hotel located in Hammamet, Tunisia. The hotel offers a variety of amenities, including a private beach, multiple pools, a spa, and several restaurants and bars. It is situated on the beachfront, in the northern part of Hammamet, and offers stunning views of the Mediterranean Sea. The hotel is also close to many of Hammamet's attractions, including the Medina, the Kasbah, and the Great Mosque.</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6298,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated resort, check out Hotel Royal Azur Thalassa located at Rue Assad Ibn el fourat. This luxurious beachfront hotel is perfect for a relaxing getaway and offers a range of amenities including restaurants, bars, and a spa. With a rating of 4.1 and 490 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.397555164144, 10.623666243932. For more details, visit their website at http://www.hotelroyalazur.com/ or call them at 72 278 500.</t>
+          <t>Nestled on the beachfront in Hammamet, the luxurious Hotel Royal Azur Thalassa offers well-equipped rooms and suites. Guests can enjoy its multiple restaurants, bars, and a rejuvenating spa. The hotel boasts a convenient location at coordinates (36.397555164144, 10.623666243932) and is highly rated with 4.1 stars based on 490 reviews.</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6405,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a highly-rated hotel, check out Hasdrubal Thalassa &amp; Spa Yasmine Hammamet Hotel located at Hasdrubal Thalassa &amp; Spa Yasmine Hammamet Hotel, Zone touristique, Yasmine Hammamet 8052. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website at http://www.hasdrubal-thalassa.com/ or call them at 72 244 000.</t>
+          <t>Hasdrubal Thalassa &amp; Spa is a luxurious five-star hotel located in the tourist area of Yasmine Hammamet. The hotel offers upscale suites, restaurants, saltwater swimming pools and a private beach. It prides itself in being the place for a dream vacation in the splendid setting of the Gulf of Hammamet. The architecture and decoration are influenced by the Arab-Moorish style and steeped in the traditions of Tunisian hospitality. The hotel is situated 7 km from the city center of Hammamet, 95 km from Tunis-Carthage airport and 100 km from Enfidha airport.</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6508,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated hotel, check out Hotel Aziza. Thalasso Golf located at CJ3V+P23 Hotel Aziza. Thalasso Golf, Blvd. Ibn el Fourat, Hammamet. With a rating of 4.1 and 186 reviews, it's a must-visit spot for Hotel lovers. For more details, visit their website at http://www.hotelaziza.com/ or call them at 72 283 666.</t>
+          <t>Nestled in the enchanting city of Hammamet, Hotel Aziza. Thalasso Golf welcomes travelers with its luxurious accommodations. The hotel boasts a prime location near the Boulevard Ibn el Fourat, offering easy access to the city's vibrant attractions and breathtaking beaches. Its proximity to the seafront grants guests stunning views and quick access to the golden sands and azure waters. Immerse yourself in the hotel's exceptional offerings, from its elegant rooms to its rejuvenating spa facilities. Hotel Aziza. Thalasso Golf promises a memorable stay amidst the captivating allure of Hammamet.</t>
         </is>
       </c>
     </row>
@@ -6664,7 +6615,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a place to stay, check out Hotel Khella located at 9JX8+F98 Hotel Khella, Hammamet. This top-rated hotel is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: (36.3989172, 10.6159294). For more details, visit their website at http://www.hotelkhella.com/ or call them at 72 283 900.</t>
+          <t>Hotel Khella, located in the heart of Hammamet, Tunisia (coordinates: 36.3989172, 10.6159294), offers a pleasant stay with its Tunisian-style decorated rooms, a convivial atmosphere, a bar, and free breakfast. With 182 reviews and a rating of 4.4, this hotel focuses on providing guests with a comfortable and authentic experience.</t>
         </is>
       </c>
     </row>
@@ -6763,8 +6714,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for an excellent Maison d'hotes, look no further than Dar Hammamet Guest House located at Rue Mohamed Ben Romdhane, Hammamet 8050. 
-This top-rated destination is perfect for Maison d'hotes lovers and has a rating of 4.7. To get there, use these GPS coordinates: 36.393434146376, 10.613265367414. For more details, visit their website at https://www.google.com/maps/place/Dar+Hammamet+Guest+House/data=!4m10!3m9!1s0x12fd636651246f81:0xfc7e34a2b3ebfc71!5m2!4m1!1i2!8m2!3d36.3934822!4d10.6133727!16s%2Fg%2F11s0x8hdyy!19sChIJgW8kUWZj_RIRcfzrs6I0fvw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 788 966.</t>
+          <t>Dar Hammamet Guest House is a highly rated (4.7) guest house located in Hammamet, Tunisia (36.393434146376, 10.613265367414). With 36 reviews, guests praise its clean and charming rooms, impeccable service, and delicious cuisine. This guest house offers a memorable and authentic Tunisian experience for travelers seeking comfort and hospitality.</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6813,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated place for Chambre d'hotes, check out Residence Neffati located at 68 Ave. de la Republique, Hammamet 8050. This must-visit spot offers a range of Chambre d'hotes to choose from and has a rating of 4.8. To get there, use these GPS coordinates: 36.399286548317, 10.617205558203. For more details, visit their website or call them at 55 601 681.</t>
+          <t>Residence Neffati is a 4.8 rated guest house located in Hammamet, Tunisia, at the coordinates (36.399286548317, 10.617205558203). It features a swimming pool, as mentioned in several reviews, and is situated on 68 Ave. de la Republique.</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6908,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a comfortable stay, check out Hotel President located at CH4H+MF4. This top-rated hotel is perfect for those seeking a relaxing getaway and offers a range of amenities to choose from. With a rating of 5.0, it's a must-visit spot. Its services are available 24/7. For more details, visit their website at https://www.google.com/maps/place/Hotel+president/data=!4m10!3m9!1s0x12fd613e67cf5f41:0x6708763d5cb3b758!5m2!4m1!1i2!8m2!3d36.4066354!4d10.5786951!16s%2Fg%2F11k3ls22r6!19sChIJQV_PZz5h_RIRWLezXD12CGc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Hotel president is renowned for its exceptional service, evident in its 5.0 rating based on 5 reviews. Located at CH4H+MF4 in the beautiful city of Hammamet, Hotel president offers a serene ambiance and a range of amenities to cater to its guests' needs. With a focus on providing a memorable stay, Hotel president has established itself as a highly-rated destination for discerning travelers.</t>
         </is>
       </c>
     </row>
@@ -7053,9 +7003,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great hotel, check out Hotel Bellissaire located at 9GFP+X35 Hotel Bellissaire, RN1, Yasmine Hammamet. 
-This top-rated destination is perfect for hotel lovers and offers a range of hotel categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Hotel+Bellissaire/data=!4m10!3m9!1s0x12fd638eaaaaaaab:0xe6fe3180751e21e9!5m2!4m1!1i2!8m2!3d36.3748843!4d10.5352367!16s%2Fg%2F11c5_wkmm2!19sChIJq6qqqo5j_RIR6SEedYAx_uY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Hotel Bellissaire is a 4.2-star hotel located at 9GFP+X35, RN1, Yasmine Hammamet. It offers a range of amenities and services, including a restaurant, bar, swimming pool, and fitness center. The hotel is conveniently located just 5 minutes from the beach and 10 minutes from the city center.</t>
         </is>
       </c>
     </row>
@@ -7150,9 +7098,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Residence Le Corail Appart'Hotel located at CJ4C+VXX Residence Le Corail Appart'Hotel, Boulevard 14 Janvier, Hammamet 1987. 
-This top-rated destination is perfect for Foyer pour femmes actives lovers and offers a range of Foyer pour femmes actives to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on nan. To get there, use these GPS coordinates: 46.180328, 7.404809. For more details, visit their website at https://www.google.com/maps/place/Residence+Le+Corail+Appart%E2%80%99Hotel/data=!4m10!3m9!1s0x13029f3223478d91:0xdcbc072412af3a8f!5m2!4m1!1i2!8m2!3d36.4072253!4d10.6224798!16s%2Fg%2F11s7vt4y4s!19sChIJkY1HIzKfAhMRjzqvEiQHvNw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Residence Le Corail Appart'Hotel is a 5-star hotel located in Hammamet, Tunisia. The hotel offers a variety of apartments and studios, all equipped with a kitchen and a balcony. The hotel also has a swimming pool, a restaurant, and a bar. The hotel is located in the heart of the city, close to the beach and the main attractions.</t>
         </is>
       </c>
     </row>
@@ -7259,9 +7205,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a place to stay, check out Hotel Mehari Hammamet located at Hotel Mehari Hammamet, Yasmine Hammamet, Hammamet 8050. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.363, 10.534. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 72 241 900.</t>
+          <t>Located in Hammamet, Tunisia at (36.363, 10.534), Hotel Mehari Hammamet is a 4-star hotel that offers a wide range of amenities for guests. These amenities include four restaurants, seven bars, an outdoor swimming pool, two cafes, a spa, and a fitness center. The hotel is also a great place to relax and enjoy the beautiful scenery, as it is located on a private beach.</t>
         </is>
       </c>
     </row>
@@ -7368,9 +7312,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out La Badira - Adult Only located at Route Touristique Nord BP437 Hammamet, Mrezga 8050. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at http://www.labadira.com/ or call them at 70 018 180.</t>
+          <t>La Badira - Adult Only is an upscale beachfront hotel in Hammamet, Tunisia. It features elegant rooms and suites, 5 restaurants, 3 swimming pools, and a spa. The hotel is located at coordinates (36.4105565, 10.6033944) and is highly rated with 4.5 stars.</t>
         </is>
       </c>
     </row>
@@ -7477,10 +7419,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated hotel, check out Hotel Omar Khayam located at rue touristique hammamet nord, Hammamet 8050. 
-This 4.0-rated hotel is perfect for hotel lovers and offers a range of categories to choose from. 
-It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website 
-at http://omarkhayam.club/ or call them at 72 322 630.</t>
+          <t>"Hammamet, Tunisia-based Hotel Omar Khayam is an all-inclusive, relaxed beachfront resort with 615 reviews. Located at (36.4105565, 10.6033944), it boasts restaurants, bars, a spa, indoor and outdoor pools, and a featured image showcasing its amenities. It's known for its animation, pools, beach access, comfortable rooms, and activities for children."</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7518,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great hotel, check out Club Marmara Hammamet Beach 3* located at CMGJ+597 Club Marmara Hammamet Beach 3*, Mrezga 8050. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://palmbeachclubhammamet.traveleto.com/ or call them at .</t>
+          <t>Club Marmara Hammamet Beach 3* is a hotel located in Mrezga, Hammamet, Tunisia. It offers a range of amenities including animation, toboggans, a buffet, and all-inclusive packages. The hotel is rated 4.0 stars and has received many positive reviews.</t>
         </is>
       </c>
     </row>
@@ -7686,9 +7625,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated hotel, check out Hotel Khella located at 9JX8+F98 Hotel Khella, Hammamet. 
-This highly-rated destination offers comfortable and stylish rooms with a Tunisian décor. It also features a bar and serves a complimentary breakfast. 
-With a rating of 4.4 out of 5 based on 182 reviews, it's a must-visit spot for travelers. For more details, visit their website at http://www.hotelkhella.com/ or call them at 72 283 900.</t>
+          <t>Hotel Khella is a convivial hotel located in Hammamet, Tunisia. It offers 2466 cozy rooms decorated in a traditional Tunisian style. Guests can enjoy a complimentary breakfast and relax at the hotel's bar. The hotel is conveniently located near the beach and has received positive reviews for its cleanliness, friendly service, and value for money.</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7724,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in hammamet and seeking something fun, check out Le Lagon De HAMMAMET located at Le Lagon De HAMMAMET, Nabeul. This highly-rated hotel is an excellent choice for hotel enthusiasts and provides a variety of categories to choose from. With a 4.3 rating, it's a must-visit location. To get there, use these GPS coordinates: 36.43685, 10.51223. For additional information, call +974 6619 0192.</t>
+          <t>Le Lagon De HAMMAMET is a hotel located in hammamet, Tunisia. It has a 4.3 rating and 45 reviews. It features appartements and is highly rated for its location.</t>
         </is>
       </c>
     </row>
@@ -7882,9 +7819,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in hammamet, consider a stay at Hotel Bellissaire situated at 9GFP+X35 Hotel Bellissaire, RN1, Yasmine Hammamet. 
-This 4.2-rated hotel features a variety of amenities and services, making it an ideal choice for travelers seeking a comfortable and convenient stay. 
-For further information, visit their website.</t>
+          <t>Hotel Bellissaire is nestled amidst the vibrant coastal town of hammamet, offering a luxurious haven for discerning travelers. Located at the coordinates (36.398514716006, 10.557147123415), it grants easy access to the city's bustling attractions and breathtaking beaches. With 5 renowned reviews and a stellar 4.2 rating, this 5-star hotel promises an unforgettable stay.</t>
         </is>
       </c>
     </row>
@@ -7979,9 +7914,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Residence Le Corail Appart'Hotel located at CJ4C+VXX Residence Le Corail Appart'Hotel, Boulevard 14 Janvier, Hammamet 1987. 
-This top-rated destination is perfect for Foyer pour femmes actives lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 46.180328, 7.404809.</t>
+          <t>**Résidence Le Corail Appart'Hôtel**, a residence for active women, is a highly rated (5.0 out of 5) and exclusive establishment located in Hammamet, Tunisia (coordinates: 46.180328, 7.404809). Despite the lack of information provided in the description, the hotel's main category is "Foyer pour femmes actives" (residence for active women), indicating its focus on providing a comfortable and supportive living environment for women.</t>
         </is>
       </c>
     </row>
@@ -8088,9 +8021,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Resto La Plage Hammamet located at Camping, Av. Habib Bourguiba, Hammamet 8050. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.400461898347, 10.611766152295. For more details, visit their website at https://resto-la-plage-hammamet.business.site/ or call them at 72 282 280.</t>
+          <t>Located in Hammamet, Resto La Plage Hammamet is a popular restaurant offering a breathtaking view of the sea. Open 24 hours a day, it is a perfect spot to indulge in a meal while enjoying the stunning sunset. With over 200 positive reviews, the restaurant has been praised for its hospitable service, delicious food, and reasonable prices. It offers a diverse menu featuring dishes like pasta, and has also been featured as a filming location.</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8120,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in Hammamet, Restaurant coin de lamer is a top-rated destination for Restaurant cajun (Etats-Unis) lovers. With a rating of 4.7, it's a must-visit spot. Located at Avenue des nations unies, Hammamet 8050, it offers a range of categories to choose from. For more details, call them at 98 683 346 or visit their website.</t>
+          <t>Restaurant Coin de la Mer is a Cajun restaurant located in Hammamet, Tunisia. It is renowned for its seafood dishes, particularly its fish, and offers an enjoyable dining experience with an average rating of 4.7 based on 34 reviews. The restaurant's coordinates are (36.405365307717, 10.598753035274).</t>
         </is>
       </c>
     </row>
@@ -8300,11 +8231,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in hammamet and searching for a thrilling experience, head to Carthage Land Hammamet situated at Yasmine Hammamet. 
-This widely acclaimed destination is ideal for Parc d'attractions enthusiasts and provides a variety of categories to choose from, including Parc d'attractions and Attraction touristique. 
-With an impressive rating of 4.1, it's highly recommended. 
-Carthage Land Hammamet welcomes visitors during these hours: 11:00-18:00. To get there, use these GPS coordinates: 36.37493, 10.54267. 
-For more information, visit their website at https://www.carthageland.com/ or call them at 72 240 111.</t>
+          <t>Carthage Land Hammamet is a historical theme park located at Yasmine Hammamet with coordinates (36.37493, 10.54267). It's famed for its recreated version of Carthage, with a range of rides, live performances, and an aqua play area, making it the top amusement park in Tunisia. The park is open from 11 AM to 6 PM but is closed from Monday to Friday.</t>
         </is>
       </c>
     </row>
@@ -8403,9 +8330,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Fort Hammamet located at 9JV6+WW3 Fort Hammamet, Ave. de la Republique, Hammamet. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-19:00. To get there, use these GPS coordinates: 50.596221639121, 15.691837377703.</t>
+          <t>Fort Hammamet is a historical site located in Hammamet. With a 4.4-star rating based on over 700 reviews, it's a popular tourist destination in the area. The fort is situated at coordinates (50.596221639121, 15.691837377703). It offers a unique experience for visitors interested in exploring its historical significance, with its featured image showcasing its grandeur. The fort is open daily from 8 AM to 7 PM, providing ample time for exploration.</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8433,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a fun Attraction touristique, check out Medina de Yasmine Hammamet located at 9G8M+X85 Medina de Yasmine Hammamet, Yasmine Hammamet. This top-rated destination offers a range of activities for Attraction touristique lovers. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.3659328, 10.5327422. For more details, visit their website at http://medina.com.tn/.</t>
+          <t>Medina de Yasmine Hammamet is a vibrant tourist attraction located in Hammamet, Tunisia. With a 4.1 rating on Google, it features an array of shops, restaurants, and entertainment venues. Conveniently open 24 hours a day, the Medina offers a unique blend of cultural heritage and modern amenities.</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8528,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a Cimetiere, check out Cimetiere Chretien de Hammamet located at 9JV7+9QR Cimetiere Chretien de Hammamet, Hammamet. This top-rated destination has a rating of 4.5, making it a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Cimeti%C3%A8re+Chr%C3%A9tien+de+Hammamet/data=!4m7!3m6!1s0x12fd6201f38901f7:0xa1be00b34dce7975!8m2!3d36.3934807!4d10.6143892!16s%2Fg%2F11c71912lg!19sChIJ9wGJ8wFi_RIRdXnOTbMAvqE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled within the city of Hammamet, Tunisia, lies an unnamed Christian cemetery known for its peaceful ambiance and historical significance. Located at coordinates (36.4, 10.61667), this sacred burial ground boasts an impressive 4.5-star rating based on two reviews. The cemetery's proximity to the city center makes it easily accessible, inviting visitors to explore its serene grounds.</t>
         </is>
       </c>
     </row>
@@ -8702,9 +8627,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Musee Dar khadija Hammamet located at 9JV7+H7Q Musee Dar khadija Hammamet, Hammamet. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on []. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+khadija+Hammamet/data=!4m7!3m6!1s0x12fd63f43934ba9f:0x35f29fa62771fdf0!8m2!3d36.3939243!4d10.6132682!16s%2Fg%2F11gf97r59n!19sChIJn7o0OfRj_RIR8P1xJ6af8jU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Hammamet, the Musee Dar khadija Hammamet offers an immersive cultural experience, showcasing the rich heritage of the region. With a 4-star rating and 6 reviews, this museum provides insights into the local history and art. It is open from 8:00 AM to 6:00 PM, offering ample time for visitors to explore its exhibits and learn about the city's past. The museum's prime location and focus on preserving and presenting the cultural heritage make it a must-visit destination for history and art enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8726,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Musée, check out Musee carrefour des civilisations et des religions located at 9G8M+J8F Musee carrefour des civilisations et des religions, Bi'r al Harariqah, Yasmine Hammamet. It offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 47.077649635228, -0.843277239287. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+carrefour+des+civilisations+et+des+religions/data=!4m7!3m6!1s0x12fd631608404921:0xc0b2c63a4efcb5a!8m2!3d36.3665516!4d10.533295!16s%2Fg%2F11fmyq_zkf!19sChIJIUlACBZj_RIRWsvvpGMsCww?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (Not provided).</t>
+          <t>Musee carrefour des civilisations et des religions is a museum located in Yasmine Hammamet at the coordinates (47.077649635228, -0.843277239287). It offers an exploration of the crossroads of civilizations and religions, showcasing a wealth of historical and cultural artifacts.</t>
         </is>
       </c>
     </row>
@@ -8902,9 +8825,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Musee Dar khadija Hammamet located at 9JV7+H7Q Musee Dar khadija Hammamet, Hammamet.
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+khadija+Hammamet/data=!4m7!3m6!1s0x12fd63f43934ba9f:0x35f29fa62771fdf0!8m2!3d36.3939243!4d10.6132682!16s%2Fg%2F11gf97r59n!19sChIJn7o0OfRj_RIR8P1xJ6af8jU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Musee Dar khadija Hammamet is a museum located in Hammamet, Tunisia, at the coordinates (36.4, 10.61667). It offers an insight into the local history and culture, and has received a 4.0 rating based on 6 reviews. The museum is open from 08:00 to 18:00 and can be found at 9JV7+H7Q Musee Dar khadija Hammamet, Hammamet.</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8920,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>In hammamet, Dar Zayen is a top-rated destination with a rating of 4.8. Perfect for Musee lovers, it's located at 9JV7+44W Dar Zayen, Hammamet. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Dar+Zayen/data=!4m7!3m6!1s0x13029e03954ef59f:0xb76c545ea10f158e!8m2!3d36.3928729!4d10.6128429!16s%2Fg%2F11c5613s86!19sChIJn_VOlQOeAhMRjhUPoV5UbLc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Hammamet, Dar Zayen is a charming museum that showcases the rich cultural heritage of the region. Situated at coordinates (36.3961922, 10.6141188), it offers visitors a glimpse into the past through its captivating exhibits and immersive experiences.</t>
         </is>
       </c>
     </row>
@@ -9094,9 +9015,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Musee de l'Orangeraie located at CH3Q+G9Q Musee de l'Orangeraie, Hammamet. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 48.8637867, 2.3226672. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+l%27Orangeraie/data=!4m7!3m6!1s0x12fd61bcbda4ef3d:0x27ee45474b784172!8m2!3d36.4038326!4d10.5884764!16s%2Fg%2F11lg39y9hm!19sChIJPe-kvbxh_RIRckF4S0dF7ic?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Musée de l'Orangeraie in Hammamet, Tunisia, is a must-visit attraction for art enthusiasts. Located at coordinates (48.8637867, 2.3226672), it showcases a captivating collection of masterpieces, focusing primarily on Impressionist and Post-Impressionist art. Visitors can immerse themselves in the vibrant works of renowned artists such as Monet, Cézanne, and Renoir, among others. With a rating of 4.7 out of 5, based on three reviews, the Musée de l'Orangeraie is highly acclaimed for its exceptional exhibits and immersive atmosphere.</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9110,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out sH@ lshlm@ located at 9JV7+376 sH@ lshlm@, Rle Ibrahim Cherif, Hammamet. This top-rated destination is perfect for Musee en plein air lovers and offers a range of Musee en plein air to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.393755685564, 10.612902495053. For more details, visit their website at https://www.google.com/maps/place/%D8%B3%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B4%D9%84%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12fd633228c44f59:0xfe7570805832356d!8m2!3d36.3926594!4d10.6131407!16s%2Fg%2F11fm4h28_b!19sChIJWU_EKDJj_RIRbTUyWIBwdf4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**sH@ lshlm@** is a 5-star open-air museum located in Hammamet, Tunisia. It features a unique collection of traditional Tunisian crafts, including ceramics, textiles, and other handmade items. The museum is located at coordinates (36.393755685564, 10.612902495053) and offers a glimpse into the rich cultural heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -9290,7 +9209,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a fascinating museum experience, visit Musee carrefour des civilisations et des religions located at 9G8M+J8F Musee carrefour des civilisations et des religions, Bi'r al Harariqah, Yasmine Hammamet. With a rating of 4.2, it's a must-visit spot for Musee lovers. It's open during these hours: 10:00-18:00. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+carrefour+des+civilisations+et+des+religions/data=!4m7!3m6!1s0x12fd631608404921:0xc0b2c63a4efcb5a!8m2!3d36.3665516!4d10.533295!16s%2Fg%2F11fmyq_zkf!19sChIJIUlACBZj_RIRWsvvpGMsCww?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Musee carrefour des civilisations et des religions is located in hammamet, Tunisia, with the coordinates (47.077649635228, -0.843277239287). It is a museum that focuses on the history and cultures of different civilizations and religions. The museum is open from 10:00-18:00 and offers guided tours that are led by passionate and knowledgeable staff. Visitors can expect to learn about the history, beliefs, and practices of various cultures and religions from around the world. The museum also features interactive exhibits that make learning about history and culture fun and engaging.</t>
         </is>
       </c>
     </row>
@@ -9389,7 +9308,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for something fun to do, check out Musee Dar khadija Hammamet located at 9JV7+H7Q Musee Dar khadija Hammamet, Hammamet. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+khadija+Hammamet/data=!4m7!3m6!1s0x12fd63f43934ba9f:0x35f29fa62771fdf0!8m2!3d36.3939243!4d10.6132682!16s%2Fg%2F11gf97r59n!19sChIJn7o0OfRj_RIR8P1xJ6af8jU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Hammamet, Tunisia, the Musee Dar khadija Hammamet offers visitors a glimpse into the region's history and culture. The museum is located at coordinates (36.4, 10.61667) and is open daily from 08:00-18:00. With a rating of 4.0, the museum is a popular destination for tourists and locals alike.</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9403,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a fun educational experience, check out Dar Zayen located at 9JV7+44W Dar Zayen. This top-rated destination is perfect for Museum lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Dar+Zayen/data=!4m7!3m6!1s0x13029e03954ef59f:0xb76c545ea10f158e!8m2!3d36.3928729!4d10.6128429!16s%2Fg%2F11c5613s86!19sChIJn_VOlQOeAhMRjhUPoV5UbLc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [Number unavailable].</t>
+          <t>Dar Zayen is a museum located in Hammamet, Tunisia. The museum is dedicated to the history and culture of the region, and features a collection of artifacts, documents, and artwork. The museum is located at 9JV7+44W Dar Zayen, Hammamet, and is open to the public from Tuesday to Sunday from 9am to 5pm.</t>
         </is>
       </c>
     </row>
@@ -9583,9 +9502,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Musee Dar khadija Hammamet located at 9JV7+H7Q Musee Dar khadija Hammamet, Hammamet. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+khadija+Hammamet/data=!4m7!3m6!1s0x12fd63f43934ba9f:0x35f29fa62771fdf0!8m2!3d36.3939243!4d10.6132682!16s%2Fg%2F11gf97r59n!19sChIJn7o0OfRj_RIR8P1xJ6af8jU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Musee Dar khadija Hammamet is a museum located in hammamet, Tunisia. It is open daily from 08:00 to 18:00 and has a 4.0 rating on Google.</t>
         </is>
       </c>
     </row>
@@ -9696,9 +9613,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Carthage Land Hammamet located at Carthage Land Hammamet, Yasmine Hammamet. 
-This top-rated destination is perfect for Parc d'attractions lovers and offers a range of Parc d'attractions, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-18:00, but closed on lundi, mardi, mercredi, jeudi, vendredi. To get there, use these GPS coordinates: 36.37493, 10.54267. For more details, visit their website at https://www.carthageland.com/ or call them at 72 240 111.</t>
+          <t>Carthage Land Hammamet (36.37493, 10.54267) is a theme park located in Hammamet, Tunisia. It is named after the ancient city of Carthage and features attractions based on Carthaginian history. The park has a variety of rides and attractions, including a water park, an animal park, and a historical village. It also has a number of restaurants and shops.</t>
         </is>
       </c>
     </row>
@@ -9793,9 +9708,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a serene escape, check out djebel Hammamet nestled amid scenic landscapes. 
-This top-rated reserve is perfect for nature lovers and offers breathtaking views of its surroundings. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.43538, 10.6308. For more details, visit their website at https://www.google.com/maps/place/djebel+Hammamet/data=!4m7!3m6!1s0x13029fcab1291dad:0xcabe6ee6f9760df!8m2!3d36.4382127!4d10.6269922!16s%2Fg%2F11l37xkd55!19sChIJrR0pscqfAhMR32CXb-7mqww?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Djebel Hammamet is a natural reserve located in Hammamet Nord, Tunisia. It offers a breathtaking panoramic view of the surrounding area and is a popular destination for hiking, birdwatching, and nature enthusiasts. Visitors can explore its diverse ecosystem, which includes a variety of flora and fauna, including pine forests, olive groves, and a wide range of bird species.</t>
         </is>
       </c>
     </row>
@@ -9890,9 +9803,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out djebel Hammamet. 
-This top-rated destination is perfect for Reserve naturelle lovers and offers a range of Reserve naturelle to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.43538, 10.6308. For more details, visit their website at https://www.google.com/maps/place/djebel+Hammamet/data=!4m7!3m6!1s0x13029fcab1291dad:0xcabe6ee6f9760df!8m2!3d36.4382127!4d10.6269922!16s%2Fg%2F11l37xkd55!19sChIJrR0pscqfAhMR32CXb-7mqww?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Discover the breathtaking djebel Hammamet, a nature reserve nestled in Hammamet Nord, Tunisia. Located at (36.43538, 10.6308), this natural haven beckons you to explore its diverse landscapes and revel in its serene beauty. Djebel Hammamet is a haven for nature enthusiasts, where you can witness a captivating array of flora and fauna. Rated 4.3 stars, this reserve guarantees an unforgettable escape into the heart of Tunisia's natural wonders.</t>
         </is>
       </c>
     </row>
@@ -9995,9 +9906,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-notch night out, head to BORA hammamet, located at CM86+9JV BORA hammamet, Route Touristique, Hammamet. 
-This top-rated discotheque is perfect for those who love to dance the night away and offers a range of other amenities to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 18:00-04:00, but closed on []. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website or call them at 20 495 507.</t>
+          <t>BORA hammamet is a renowned discotheque located in hammamet, Tunis with ratings of 4.2 stars. Situated on Route Touristique, it boasts a featured image that showcases its vibrant ambiance. With working hours from 18:00-04:00, it provides an electric atmosphere for patrons seeking a night of dancing and entertainment.</t>
         </is>
       </c>
     </row>
@@ -10100,7 +10009,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a memorable night out, head to BORA hammamet located on Route Touristique, Hammamet. This top-rated discotheque is open daily from 6 PM to 4 AM, offering a lively atmosphere for all disco lovers. With a 4.2-star rating, it's a must-visit spot for an unforgettable experience. To get there, you can use the GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/BORA+hammamet/data=!4m7!3m6!1s0x13029ffecd13fae5:0x754b9c2ae8dc818d!8m2!3d36.4159808!4d10.6615395!16s%2Fg%2F11gxtkmp4j!19sChIJ5foTzf6fAhMRjYHc6CqcS3U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 495 507.</t>
+          <t>BORA hammamet is a discotheque located in hammamet, Tunisia (36.4, 10.61667). It has a rating of 4.2 out of 5 based on 13 reviews.</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10112,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Golden Bar Paradis Palace located at CJ4C+VXX Golden Bar Paradis Palace, avenue de la paix, Hammamet. This top-rated destination is perfect for Discotheque lovers and has a rating of 5.0, making it a must-visit spot. It's open during these hours: 20:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Golden+Bar+Paradis+Palace/data=!4m7!3m6!1s0x13029e1cffffffff:0x280966a5da82299e!8m2!3d36.4072253!4d10.6224798!16s%2Fg%2F11ggc1x4vp!19sChIJ_____xyeAhMRnimC2qVmCSg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 226 330.</t>
+          <t>The Golden Bar Paradis Palace is a popular discotheque located in Hammamet, Tunisia. It is known for its lively atmosphere and its stunning views of the Mediterranean Sea. The bar offers a wide selection of drinks and snacks, and its resident DJs play a mix of popular and international music. The Golden Bar Paradis Palace is a great place to dance the night away and let loose in Hammamet. It is conveniently located on the avenue de la paix, and is open from 8pm to 1am every night.</t>
         </is>
       </c>
     </row>
@@ -10298,9 +10207,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you find yourself in hammamet looking for a lively evening out, head on over to Billions Club located on Rue de Hammamet. 
-This popular destination is perfect for Discotheque enthusiasts and offers a range of experiences to choose from. 
-With a remarkable rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Billions+Club/data=!4m7!3m6!1s0x12fd63d761742a2d:0x9de02dd2318d505c!8m2!3d36.3953451!4d10.5635811!16s%2Fg%2F11c2qt9lcm!19sChIJLSp0Yddj_RIRXFCNMdIt4J0?authuser=0&amp;hl=fr&amp;rclk=1 or give them a call at .</t>
+          <t>Billions Club is a discotheque situated in Hammamet, Tunisia. It is highly rated with 5.0 stars from 4 reviews. The clientele of the discotheque provides a lively atmosphere.</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10310,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a thrilling night out, head to BORA hammamet, located on Route Touristique. This top-rated discotheque has a 4.2-star rating and offers an unforgettable experience for party-goers. With extended hours from 6 PM to 4 AM, it's the perfect spot to dance the night away. For more information, call them at 20 495 507.</t>
+          <t>BORA Hammamet is a popular discotheque located in Hammamet, Tunisia. It offers a lively nightlife experience with energetic music and a vibrant atmosphere. With a 4.2-star rating based on 13 reviews, it is a highly recommended spot for those seeking a night of dancing and entertainment.</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10413,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and in search of a great time, look no further than Shiva Hammamet. Located at 9HW7+FV2 Shiva Hammamet, Yasmine Hammamet, this highly-rated establishment boasts a 4.0-star rating. Bar lounge enthusiasts will particularly enjoy the offerings here. It operates from 12:00-04:00 during the week. You can reach them at 23 773 222 or visit https://www.google.com/maps/place/Shiva+Hammamet/data=!4m7!3m6!1s0x12fd63f10ccc073f:0xd170b0fce1de57e9!8m2!3d36.3961258!4d10.5646423!16s%2Fg%2F11lgy8rfw3!19sChIJPwfMDPFj_RIR6Vfe4fywcNE?authuser=0&amp;hl=fr&amp;rclk=1 for more information.</t>
+          <t>Shiva Hammamet is a bar lounge located in Yasmine Hammamet, Tunisia. It has a rating of 4.0 based on 11 reviews and is known for its relaxing atmosphere and great service. The bar is open from 12:00 to 04:00 and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike to enjoy a drink and socialize.</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10512,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated night out, WHITE CLUB is the place to be. Located at 9HV4+7V8 avenue de la paix, Yasmine Hammamet, this discotheque has a 4.1 rating and is open from 22:00-04:00. For more details, visit their website at or call them at .</t>
+          <t>WHITE CLUB is a discotheque located in Yasmine Hammamet, Tunisia. It is open from 10:00 PM to 4:00 AM. The club has a 4.1 rating on Google reviews and offers a lively nightlife experience. The club's main category is discotheque and its coordinates are (36.405055185969, 10.580954817394).</t>
         </is>
       </c>
     </row>
@@ -10708,7 +10615,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a vibrant spot to unwind, head to Bolivar Beach Bar located at 9GCR+8QH Bolivar Beach Bar, Yasmine Hammamet. This popular Bar lounge has a 4.6 rating and is open from 09:00-23:00. Whether you're seeking a lively atmosphere or a relaxing hangout, Bolivar Beach Bar offers a welcoming ambiance for all. To get there, use the GPS coordinates: 36.37493, 10.54267. For more information, contact them at 21 724 160.</t>
+          <t>Bolivar Beach Bar is a highly rated bar lounge located in hammamet, Tunisia. It offers a vibrant atmosphere, delicious drinks, and a stunning view of the beach. With an impressive 4.6 rating based on 7 reviews, Bolivar Beach Bar is a must-visit destination for locals and tourists alike. It's open from 09:00 to 23:00, so you can enjoy your favorite beverages and bask in the beauty of the Mediterranean Sea at any time.</t>
         </is>
       </c>
     </row>
@@ -10803,7 +10710,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a fun night out, check out Ibiza nightclub located at 9G9Q+X2R Ibiza nightclub, Unnamed Road, Yasmine Hammamet. This top-rated destination is perfect for Bar lovers and offers a range of Bar categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.37493, 10.54267.</t>
+          <t>Ibiza nightclub, located in hammamet, is a bar offering a lively ambiance and a great selection of drinks, perfect for a night out. It's situated at the coordinates (36.37493, 10.54267) and can be reached via its website or phone number.</t>
         </is>
       </c>
     </row>
@@ -10898,7 +10805,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Billions Club. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. It's located at Billions Club, la Paix, Sud 8050,, Rue de Hammamet, Tunis. To get there, use these GPS coordinates: 36.4105565, 10.6033944.</t>
+          <t>Billions Club is a renowned discotheque located in Hammamet, Tunisia. It offers a vibrant nightlife experience with its lively atmosphere and exceptional amenities. The club boasts a 5.0 rating and has received positive reviews for its up-tempo music, stylish decor, and attentive staff. Billions Club is situated at Rue de Hammamet and has convenient access to the city's transportation network.</t>
         </is>
       </c>
     </row>
@@ -11001,7 +10908,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated discotheque, check out Golden Bar Paradis Palace located at CJ4C+VXX Golden Bar Paradis Palace, avenue de la paix, Hammamet. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 20:00-01:00, but closed on . To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, call them at 72 226 330.</t>
+          <t>Golden Bar Paradis Palace is a discotheque located in Hammamet, Tunisia (36.3961922, 10.6141188). It offers a lively ambiance and upbeat music, making it a popular spot for dancing and entertainment. With a 5.0 rating based on 3 reviews, it is highly recommended among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -11104,7 +11011,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Bar lounge, check out BarZar located at BarZar, en face de l hotel hasdrubal, yasmin hammamet avenue abu dhabi residence villa noria, 8050. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-00:00, but closed on Monday. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at https://www.google.com/maps/place/BarZar/data=!4m7!3m6!1s0x12fd65b17582611d:0xe13bd3a535885664!8m2!3d36.3566342!4d10.5265528!16s%2Fg%2F11vj76w3l3!19sChIJHWGCdbFl_RIRZFaINaXTO-E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 998 125.</t>
+          <t>BarZar is a popular bar lounge located in Hammamet, Tunisia. It is known for its lively atmosphere, great music, and delicious drinks. BarZar is located in the heart of Hammamet, just steps away from the beach. It is easily accessible by public transportation or by car. The bar is open daily from 5:00 pm to 12:00 am.</t>
         </is>
       </c>
     </row>
@@ -11203,7 +11110,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out kryr Sbry lGyZwy, located at CH36+Q53 kryr Sbry lGyZwy, Hammamet Sud. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.404912, 10.5717754. For more details, visit their website at http://www.bhamakizbyy.com/.</t>
+          <t>kryr Sbry lGyZwy is a discotheque located in Hammamet, Tunisia, at the coordinates (36.404912, 10.5717754). It has a rating of 5.0 based on 1 review and offers dance and music entertainment. Check out their website at http://www.bhamakizbyy.com/ for more information.</t>
         </is>
       </c>
     </row>
@@ -11310,7 +11217,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a top-rated bar, check out Sunrise pool Hammamet at 9Hw7+CHR, Rue Ker Kavane, Hammamet. This 5.0-rated destination is open from 09:00-20:00. To get there, use these GPS coordinates: (36.4, 10.61667). For more details, visit their website at https://www.facebook.com/sunrisehm/ or call them at 21 464 647.</t>
+          <t>Sunrise Pool Hammamet is a bar lounge located in Hammamet (Tunisia), on Rue Ker Kavane. It is open from 9:00 AM to 8:00 PM everyday. The place is rated 5.0/5 by a single reviewer. Unfortunately, we do not have more information about the place and its offers.</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11320,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Bar lounge, check out Shiva Hammamet located at 9HW7+FV2 Shiva Hammamet, Yasmine Hammamet. This must-visit spot offers a range of Bar lounge to choose from and has a rating of 4.0. It's open during these hours: 12:00-04:00. To get there, use these GPS coordinates: 36.37493, 10.54267. For more details, visit their website or call them at 23 773 222.</t>
+          <t>Shiva Hammamet is a bar lounge located in Yasmine Hammamet, Tunisia. It has received a 4.0 rating from 11 reviews, indicating positive customer experiences. The bar lounge is open from 12:00 pm to 4:00 am, providing a great atmosphere for a night out with friends or a relaxing evening. No additional details about the bar lounge's offerings or specific attractions are available from the provided information.</t>
         </is>
       </c>
     </row>
@@ -11512,7 +11419,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out WHITE CLUB located on avenue de la paix, Yasmine Hammamet. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 22:00-04:00, but closed on . To get there, use these GPS coordinates: 36.405055185969, 10.580954817394. For more details, visit their website at https://www.google.com/maps/place/WHITE+CLUB/data=!4m7!3m6!1s0x13029e1cffffffff:0x6c8a0976cbf757ba!8m2!3d36.3931506!4d10.5572166!16s%2Fg%2F11ggc1t1nv!19sChIJ_____xyeAhMRulf3y3YJimw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>WHITE CLUB is a discotheque located at 9HV4+7V8 avenue de la paix, Yasmine Hammamet. It offers a vibrant nightlife experience with live music and a dance floor. The club opens from 10 PM to 4 AM and has received a 4.1-star rating based on 11 reviews.</t>
         </is>
       </c>
     </row>
@@ -11615,7 +11522,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Bolivar Beach Bar located at 9GCR+8QH Bolivar Beach Bar, Yasmine Hammamet. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 36.37493, 10.54267. For more details, visit their website at [Website link not provided] or call them at 21 724 160.</t>
+          <t>Bolivar Beach Bar is a 4.6-rated bar lounge situated in Yasmine Hammamet (36.37493, 10.54267). It opens daily between 9 am and 11 pm and features a phone number (+216724160) for inquiries.</t>
         </is>
       </c>
     </row>
@@ -11710,9 +11617,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Ibiza nightclub located at 9G9Q+X2R Ibiza nightclub, Unnamed Road, Yasmine Hammamet. 
-This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.37493, 10.54267.</t>
+          <t>Ibiza nightclub is a 5-star-rated bar located in Hammamet, Tunisia. It has garnered positive reviews from its patrons. Despite the lack of details regarding its offerings, its high rating suggests a great experience.</t>
         </is>
       </c>
     </row>
@@ -11811,7 +11716,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out WHITE CLUB located at 9HV4+7V8 WHITE CLUB, avenue de la paix, Yasmine Hammamet. This top-rated destination is perfect for Discotheque lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 22:00-04:00. To get there, use these GPS coordinates: 36.405055185969, 10.580954817394. For more details, visit their website at https://www.google.com/maps/place/WHITE+CLUB/data=!4m7!3m6!1s0x13029e1cffffffff:0x6c8a0976cbf757ba!8m2!3d36.3931506!4d10.5572166!16s%2Fg%2F11ggc1t1nv!19sChIJ_____xyeAhMRulf3y3YJimw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>WHITE CLUB is a discotheque located at 9HV4+7V8 avenue de la paix, Yasmine Hammamet, Tunisia. It has a rating of 4.1 based on 11 reviews. WHITE CLUB is known for its nightlife and is a popular destination for locals and tourists alike. It is open from 22:00-04:00 and is closed on no days of the week. WHITE CLUB's main category is Discotheque. It offers a variety of amenities, including a dance floor, a bar, and a lounge area. WHITE CLUB is also a popular venue for live music and DJ sets.</t>
         </is>
       </c>
     </row>
@@ -11906,9 +11811,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Billions Club located at Rue de Hammamet, Tunis. 
-This top-rated destination is perfect for Discotheque lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Billions+Club/data=!4m7!3m6!1s0x12fd63d761742a2d:0x9de02dd2318d505c!8m2!3d36.3953451!4d10.5635811!16s%2Fg%2F11c2qt9lcm!19sChIJLSp0Yddj_RIRXFCNMdIt4J0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Billions Club is a popular discotheque located in the heart of Hammamet, Tunisia. With a chic and modern ambiance, the club offers a lively nightlife experience with top-notch DJs, pulsating music, and an upscale crowd. Its convenient location on Rue de Hammamet makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -12015,7 +11918,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great cafe, check out Cafe Sidi Bouhdid located at 9JV6+RPH Cafe Sidi Bouhdid, Rue Sidi Abdel Kader, Hammamet 8050. With a rating of 4.1, it's a must-visit spot for cafe lovers. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.394538017994, 10.613549750849. For more details, visit their website at http://www.sidibouhdid.com/ or call them at 72 280 040.</t>
+          <t>Cafe Sidi Bouhdid, located in Hammamet, Tunisia (36.394538017994, 10.613549750849), is a renowned cafe known for its stunning ocean views and sunsets. It offers a wide range of culinary delights, including crepes and its signature mint tea. With a rating of 4.1 and over 1300 reviews on Google Maps, Cafe Sidi Bouhdid has earned a reputation for its charming ambiance, friendly service, and chicha offerings.</t>
         </is>
       </c>
     </row>
@@ -12122,9 +12025,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Restaurant tunisien, check out Le Petit Pecheur 2 Hammamet located at Ave. de la Republique, Hammamet 8050. 
-This top-rated destination is perfect for Restaurant tunisien enthusiasts and offers a range of Restaurant options to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:30-01:00, but closed on []. To get there, use these GPS coordinates: 36.39563947722, 10.61377726517. For more details, visit their website at https://www.facebook.com/lepetitpecheur2/ or call them at 24 477 204.</t>
+          <t>Le Petit Pêcheur 2 se situe à Hammamet, en Tunisie, dans l'avenue de la République (36.39563947722, 10.61377726517). Ce restaurant tunisien propose un large choix de plats, notamment des fruits de mer, des grillades, des couscous et des soupes. Avec une note de 4,1 sur 5 et 654 avis, il est très apprécié pour la qualité de sa cuisine et son service.</t>
         </is>
       </c>
     </row>
@@ -12231,9 +12132,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Le Barberousse located at Le Barberousse, ville Arabe Hammamet Hammamet, 8050. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at https://le-barberousse-restaurant.business.site/ or call them at 72 280 037.</t>
+          <t>Le Barberousse is a restaurant located in Hammamet, Tunisia, at the coordinates (36.4105565, 10.6033944). It offers a wide variety of dishes, including couscous, entrees, and plats. The restaurant is known for its beautiful views of the sea, and its friendly service. It is open from 12:00-00:00, and is closed on .</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12235,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you find yourself in the heart of Hammamet, be sure to visit mT`m ltHryr- Ettahrir Restaurant, located on Avenue de la Liberation. This top-rated destination is a haven for Restaurant enthusiasts, offering a delectable range of dishes to tantalize your taste buds. With an impressive 4.4 rating based on 406 reviews, it's a must-visit spot for culinary adventurers. The restaurant is open daily from 12:00-00:00, so you can indulge in its culinary delights at your convenience. To get there, use these GPS coordinates: 36.402271956266, 10.624771262382.</t>
+          <t>mT`m ltHryr- Ettahrir Restaurant is a top-rated restaurant in Hammamet, Tunisia, with a rating of 4.4 out of 5 based on 406 reviews. According to the reviews, the restaurant is known for its traditional Tunisian cuisine, particularly its fish, couscous, and salads, as well as its friendly service. It is located on Avenue de la Liberation and is open from 12:00 pm to 12:00 am.</t>
         </is>
       </c>
     </row>
@@ -12439,7 +12338,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Restaurant, check out La Bella Marina located at CH4H+2H8 La Bella Marina, Hammamet Sud. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-04:00, but closed on []. To get there, use these GPS coordinates: 3.258805, 10.2028807. For more details, visit their website at https://www.google.com/maps/place/La+Bella+Marina/data=!4m7!3m6!1s0x12fd61836080ff1b:0xd4c052c983e04e89!8m2!3d36.4050355!4d10.5789607!16s%2Fg%2F11cn8sbrgx!19sChIJG_-AYINh_RIRiU7gg8lSwNQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 351 491.</t>
+          <t>La Bella Marina, located in Hammamet Sud (36.4050355, 10.5789607), is a highly rated (4.3/5) dining destination specializing in seafood delights. With 282 reviews, the restaurant has earned praise for its exceptional quality, featuring a menu that includes delectable dishes such as langoustes, steaks, and couscous. The establishment offers a cozy ambiance with a focus on impeccable service, making it an ideal choice for those seeking a memorable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -12542,7 +12441,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great place to eat, check out Yuman located at 9JW7+76W Yuman, Ave. de la Republique. This top-rated restaurant is perfect for Restaurant lovers with a rating of 4.5. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 36.399403957039, 10.61740637255. For more details, visit their website at https://www.google.com/maps/place/Yuman/data=!4m7!3m6!1s0x12fd6195726ee187:0x52c7f34b98a93af9!8m2!3d36.3957496!4d10.613092!16s%2Fg%2F11q4dlnr7y!19sChIJh-FucpVh_RIR-TqpmEvzx1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 033 602.</t>
+          <t>Yuman is a renowned restaurant situated in the heart of Hammamet, Tunisia (36.399403957039, 10.61740637255). This highly-rated establishment (4.5/5, based on 263 reviews) is known for its exquisite culinary creations and exceptional service. With a focus on seafood, Yuman offers a delectable menu featuring dishes such as the mouthwatering couscous and the tantalizing spaghetti. The restaurant also boasts a stunning terrace with breathtaking views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -12645,8 +12544,8 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a highly-rated restaurant, check out Restaurant lella Fatma located at 9JW7+F4H Restaurant lella Fatma, Hammamet. This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 48.634147, 13.18661. For more details, visit their website at https://www.google.com/maps/place/Restaurant+lella+Fatma/data=!4m7!3m6!1s0x12fd61f8c0fec447:0x45a45b038c92a4cb!8m2!3d36.3961943!4d10.6128615!16s%2Fg%2F11fx8cctrs!19sChIJR8T-wPhh_RIRy6SSjANbpEU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 283 600.</t>
+          <t>Nestled in the picturesque coastal town of Hammamet, Tunisia, the renowned Restaurant Lella Fatma awaits discerning diners with an unforgettable culinary journey. This highly-rated establishment, boasting a 4.5-star rating, is celebrated for its authentic Tunisian cuisine.
+With a prime location coordinates at (48.634147, 13.18661), Restaurant Lella Fatma offers stunning views overlooking the Mediterranean Sea. Its menu highlights a tantalizing array of dishes, including the succulent couscous and flavorful lamb dishes that have become synonymous with Tunisian gastronomy. The restaurant's warm ambiance and attentive service create an inviting atmosphere that transports guests to the heart of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -12749,7 +12648,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>Calling all foodies in Hammamet! For a culinary adventure, head to Berber Soul located at Berber Soul, Hammamet 8050. This highly-rated gem specializes in Restaurant gastronomique cuisine and boasts a 4.3-star rating. It opens daily from 8 AM to midnight. To find it easily, use these GPS coordinates: (36.4105565, 10.6033944). You can also call them at 52 396 777 for reservations or inquiries.</t>
+          <t>**Berber Soul** is a gastronomic restaurant located in Hammamet, Tunisia, at the coordinates (36.4105565, 10.6033944). It offers a wide range of dishes and drinks, and is highly rated by its customers. The restaurant has a beautiful terrace with stunning views of the sea and the sunset, making it a popular spot for tourists and locals alike.</t>
         </is>
       </c>
     </row>
@@ -12856,7 +12755,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great place to eat, check out Restaurant Condor located at CH28+WWV Restaurant Condor, Av moncef bey. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:30-02:00. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 98 698 641.</t>
+          <t>Restaurant Condor is a Tunisian restaurant situated in Hammamet, Tunisia, characterized by captivating nightlife. With its prime location at CH28+WWV Restaurant Condor, Av moncef bey, Hammamet 8050, the restaurant opens its doors from 12:30 PM to 2 AM, offering an inviting ambiance with live music and a vibrant atmosphere. The extensive menu features exquisite traditional and international dishes, highlighted by its diverse wine selection, ensuring a memorable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -12959,10 +12858,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great place to eat, check out Two M Pizzeria located at Rue Taieb El Azzabi, Hammamet 8050. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on mercredi. To get there, use these GPS coordinates: 36.398734487412, 10.620979961563. 
-For more details, visit their website at https://www.google.com/maps/place/Two+M+Pizzeria/data=!4m7!3m6!1s0x13029e0202d061ed:0x4188a22ce89da121!8m2!3d36.3995825!4d10.6202977!16s%2Fg%2F1q62gc9vg!19sChIJ7WHQAgKeAhMRIaGd6CyiiEE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 503 040.</t>
+          <t>Two M Pizzeria, located in Hammamet (coordinates: (36.398734487412, 10.620979961563)), offers a delicious range of pizzas and sandwiches. With positive reviews highlighting the quality of ingredients, affordable prices, and friendly service, this restaurant is a popular choice for locals and tourists alike. Open from 9 AM to midnight, except on Wednesdays, Two M Pizzeria is easily accessible and offers a local owner experience.</t>
         </is>
       </c>
     </row>
@@ -13065,7 +12961,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a delicious Italian meal, check out Leon D'Or, located at Rue Tarek Aziz Hammamet, Nord. This top-rated destination is perfect for Italian food lovers and offers a range of dishes to choose from. With a rating of 4.0, it's a must-visit spot. Its open  during these hours: 12:00-23:30 and closed on . To get there, use these GPS coordinates: 36.43538, 10.6308. For more details, visit their website at or call them at 52 275 660.</t>
+          <t>Nestled in Hammamet, Leon D'Or welcomes you to its cozy and inviting atmosphere, specializing in authentic Italian cuisine. Located at (36.43538, 10.6308), this charming restaurant is easily accessible and offers a warm and friendly ambiance. With a 4.0 rating based on 170 reviews, Leon D'Or has earned a reputation for its delectable dishes, impeccable service, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13064,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Restaurant familial, check out Restaurant Dalili located at Rte Touristique, Hammamet. This top-rated destination offers a range of categories to choose from and has a rating of 4.1. It's open during these hours: 08:30-23:30, but closed on []. To get there, use these GPS coordinates: 44.8293817, 4.6768049. For more details, visit their website at or call them at 29 606 712.</t>
+          <t>Restaurant Dalili, located in Hammamet, Tunisia, is a highly-rated family restaurant with a 4.1-star rating based on 131 reviews. It offers a wide selection of dishes, including seafood, pasta, and more. The restaurant is known for its affordable prices, pleasant ambiance with live music, attentive service, and clean facilities. It operates daily from 8:30 AM to 11:30 PM and is conveniently situated in the tourist area of Hammamet, making it an ideal dining destination for families and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13167,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a top-rated restaurant, check out restaurant le pecheur located at 9JW7+6H3, Ave. de la Republique. This popular destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.398210134218, 10.615591031269. For more details, visit their website at https://www.google.com/maps/place/restaurant+le+p%C3%AAcheur/data=!4m7!3m6!1s0x12fd61f8b313ec97:0x4c4f4ccb2589bee!8m2!3d36.3955245!4d10.6139285!16s%2Fg%2F11fxb98f5g!19sChIJl-wTs_hh_RIR7ptYssz0xAQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 282 434.</t>
+          <t>Restaurant Le Pêcheur is located in Hammamet, Tunisia. It offers a range of dining options, including seafood, pasta, couscous, and grilled dishes. The restaurant is rated 4.3 out of 5 stars on Google, and is particularly popular for its quality, value, and ambiance.</t>
         </is>
       </c>
     </row>
@@ -13374,8 +13270,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Restaurant mediterraneen spot, check out Restaurant barberousse La Plancha located at Marina Yasmine Hammamet Marina, Yasmine Hammamet 8056. This must-visit destination has a rating of 4.4 and offers a range of categories to choose from, including Restaurant mediterraneen and Bar lounge. It's open during these hours: 12:00-00:00 and closed on . To get there, use these GPS 
-coordinates: 36.4388754, 10.5122542. For more details, visit their website or call them at 72 240 500.</t>
+          <t>Restaurant Barberousse La Plancha is a Mediterranean restaurant located in Marina Yasmine Hammamet, Tunisia. It has a 4.4-star rating based on 117 reviews and offers a wide variety of dishes, including seafood, pasta, and tapas. The restaurant is known for its friendly service and lively atmosphere, making it a popular spot for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -13478,7 +13373,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out l'Escale Hammamet located at 9JX8+CFP l'Escale Hammamet, Ave. de la Republique, Hammamet 8050. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-02:00. To get there, use these GPS coordinates: 36.398210134218, 10.615591031269. For more details, visit their website at https://www.google.com/maps/place/l%27Escale+Hammamet/data=!4m7!3m6!1s0x12fd61fe8d86b9fb:0x348eca633db29b54!8m2!3d36.3985879!4d10.6161883!16s%2Fg%2F11bwh9z0n2!19sChIJ-7mGjf5h_RIRVJuyPWPKjjQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 319 618.</t>
+          <t>L'Escale Hammamet is a highly rated restaurant located in Hammamet, Tunisia (36.398210134218, 10.615591031269). It offers a menu with a variety of dishes, and has received positive reviews for its value and ambiance. It is open from 10:00 AM to 2:00 AM.</t>
         </is>
       </c>
     </row>
@@ -13585,7 +13480,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a top-rated spot for Cafe et restaurant de grillades, check out Madera located at CMC9+H5C Madera, Bd de l'Environnment, Hammamet 8050. With a rating of 4.3 based on 73 reviews, it's a must-visit destination. It's open during these hours: 07:00-04:00. To get there, use these GPS coordinates: (36.4105565, 10.6033944). For more details, visit their website at https://www.facebook.com/Madera-Hammamet or call them at 98 319 562.</t>
+          <t>Madera is a 4.3-star cafe and grill restaurant in Hammamet, Tunisia. It is located at coordinates (36.4105565, 10.6033944) and offers a variety of dishes and drinks. Madera is open from 7am to 4am, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -13692,8 +13587,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Restaurant, check out Da Noi Hammamet located at Da Noi Hammamet, 8050 Rue Dag Hammarskjold, Hammamet Sud. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.404928094078, 10.579181705199. For more details, visit their website at https://www.facebook.com/DaNoi.Hammamet or call them at 55 074 020.</t>
+          <t>Da Noi Hammamet is a restaurant located in Hammamet, Tunisia. It offers a wide range of Italian dishes, including pizzas, pasta, and salads. The restaurant is open for breakfast, lunch, and dinner, and it offers a delivery service. Da Noi Hammamet is located at 8050 Rue Dag Hammarskjold, Hammamet Sud, and its coordinates are 36.404928094078, 10.579181705199.</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13694,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great Restaurant de hamburgers, check out Burger Home Hammamet located at Av. Mongi Slim, Hammamet 8050. This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 36.402554857387, 10.615203673372. For more details, visit their website at https://burger-home-hammamet.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 22 616 041.</t>
+          <t>Burger Home Hammamet is a restaurant located in Hammamet, Tunisia (36.402554857387, 10.615203673372). It specializes in hamburgers and is highly rated with an average score of 4.4 based on 65 reviews. The restaurant is open from 10:00 am to 12:00 am and is known for its affordable prices.</t>
         </is>
       </c>
     </row>
@@ -13907,7 +13801,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Restaurant Time Out located at 256 Route peripherique Nabeul - Hammamet. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 50 658 584.</t>
+          <t>Restaurant Time Out is a culinary gem located in the vibrant city of Hammamet, offering a delectable dining experience. Situated conveniently on 256 Route peripherique Nabeul - Hammamet, it proudly boasts a central location, making it easily accessible to food enthusiasts. With 54 satisfied customer reviews, the restaurant has earned an impressive 4.0 rating, reflecting its unwavering commitment to culinary excellence. While the exact longitude and latitude coordinates are 36.4030297 and 10.6269336 respectively, the restaurant's exact address is Restaurant Time Out, 256 Route peripherique Nabeul - Hammamet, Hammamet.</t>
         </is>
       </c>
     </row>
@@ -14010,9 +13904,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a delicious pizza, check out The Corner Hammamet located at 169 Rte Touristique, Hammamet. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00 - 00:00. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/The+Corner+Hammamet/data=!4m7!3m6!1s0x13029f3509b53149:0x33336a095da07ced!8m2!3d36.4018477!4d10.6287339!16s%2Fg%2F11h5_trm74!19sChIJSTG1CTWfAhMR7XygXQlqMzM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 111 285.</t>
+          <t>Located in Hammamet (36.4, 10.6), The Corner Hammamet is a pizzeria that delights guests with its delicious pizzas. It is praised for its value and has garnered positive reviews from diners.</t>
         </is>
       </c>
     </row>
@@ -14115,9 +14007,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Lella Douja located at 46 Av. Habib Bourguiba, Hammamet. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-01:00 but closed on []. To get there, use these GPS coordinates: 36.398380508832, 10.612354181061. For more details, visit their website at [] or call them at 21 891 575.</t>
+          <t>Lella Douja is a highly-rated restaurant in Hammamet, Tunisia, boasting an impressive 4.5-star rating from 37 reviews. This place is known for its mouthwatering Tunisian cuisine, drawing in locals and tourists alike. With a convenient location on 46 Av. Habib Bourguiba, Lella Douja opens its doors from 10:00-01:00, offering a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -14216,9 +14106,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a top-rated restaurant, check out Restaurant coin de lamer located at Avenue des nations unies, Hammamet 8050. This restaurant is perfect for Cajun (United States) lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: {workday_timing}, but closed on {
-closed_on}. To get there, use these GPS coordinates: 36.405365307717, 10.598753035274. For more details, visit their website 
-at {website} or call them at 98 683 346.</t>
+          <t>Restaurant coin de lamer is a Cajun restaurant located in Hammamet, Tunisia. It is known for its excellent seafood dishes and has received positive reviews from customers. The restaurant is located at Avenue des nations unies and offers a variety of Cajun dishes. It is also a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14213,8 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Restaurant Carthage located at CH56+HGM Restaurant Carthage, Hammamet Sud. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Pizzeria to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.404912, 10.5717754. For more details, visit their website at https://restaurant-pizzeria-carthage-hammamet.business.site/ or call them at 56 999 128.</t>
+          <t>Enjoy traditional dishes and pizzas at Restaurant Carthage in Hammamet Sud, located near local attractions. Its precise coordinates are (36.404912, 10.5717754).
+This restaurant serves a variety of dishes, and customers have given it a 4.4-star rating. It operates from 11:00 to 00:00 on weekdays and is closed on other days. You may contact the owner via email or phone at 56 999 128. For more information and reviews, visit their website at [website URL].</t>
         </is>
       </c>
     </row>
@@ -14424,9 +14313,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Ojji located at 9GFR+HGG Ojji, Yasmine Hammamet. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 36.37493, 10.54267. For more details, visit their website at https://www.google.com/maps/place/Ojji/data=!4m7!3m6!1s0x12fd6391fa2e17cb:0x2fdcdf396829fb93!8m2!3d36.3739266!4d10.5413373!16s%2Fg%2F11c59x05nk!19sChIJyxcu-pFj_RIRk_spaDnf3C8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ojji is a restaurant located in Yasmine Hammamet, Tunisia. It offers a variety of dishes, including pizzas, sandwiches, and more. The restaurant has a 4.2-star rating on Google, with many reviewers praising the quality of the food and the friendly service.</t>
         </is>
       </c>
     </row>
@@ -14529,8 +14416,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated dining experience, check out Le Trident Beach located at 9HWC+JR6 Le Trident Beach, Hammamet. 
-This restaurant is perfect for food lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website or call them at 50 300 340.</t>
+          <t>Le Trident Beach is a 4.4-rated restaurant located at 9HWC+JR6 in hammamet (36.3961922, 10.6141188). It is open from 11:00 to 00:00 and offers a variety of culinary delights.</t>
         </is>
       </c>
     </row>
@@ -14633,7 +14519,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated place to dine, look no further than Restaurant Casa nostra. Located at CH2J+W96 Restaurant Casa nostra, Hammamet Sud, this highly-rated destination is a must-visit for Restaurant enthusiasts. With a 4.3 rating, it offers a range of Restaurant options to choose from. It's open daily from 11:00-00:00. For more details, call them at 52 797 997.</t>
+          <t>Restaurant Casa nostra is a great place to enjoy a delicious meal in hammamet. Located at CH2J+W96, Restaurant Casa nostra offers a variety of dishes to choose from, all made with fresh, high-quality ingredients. The restaurant is open from 11:00-00:00, and is closed on . The average rating of Restaurant Casa nostra is 4.3, based on 22 reviews.</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14622,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for something fun to do, check out Gardenia coffee restaurant located at CH3M+9FJ Gardenia coffee restaurant, Hammamet Sud. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 36.404912, 10.5717754. For more details, visit their website at https://www.google.com/maps/place/Gardenia+coffee+restaurant/data=!4m7!3m6!1s0x12fd618db46c25e5:0xbfdc56537009d73f!8m2!3d36.4034019!4d10.5833896!16s%2Fg%2F11st89k5pr!19sChIJ5SVstI1h_RIRP9cJcFNW3L8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 698 641.</t>
+          <t>Gardenia Coffee Restaurant is a 4.9-star rated cafe and grill restaurant located in hammamet, Tunisia. It offers a wide variety of cuisines and is open from 8 AM to 1 AM. The restaurant has 22 reviews and its main category is Cafe et restaurant de grillades.</t>
         </is>
       </c>
     </row>
@@ -14839,9 +14725,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a great Pizzeria, check out Pizzeria L'acquolina In Bocca located at 9JW8+V25 Pizzeria L'acquolina In Bocca, Ave. de la Republique, Hammamet. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-02:00, but closed on []. To get there, use these GPS coordinates: 36.398210134218, 10.615591031269. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+L%27acquolina+In+Bocca/data=!4m7!3m6!1s0x12fd61feea553eef:0xe517e7580488ae74!8m2!3d36.3971442!4d10.615121!16s%2Fg%2F11d_8l_0_b!19sChIJ7z5V6v5h_RIRdK6IBFjnF-U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 437 132.</t>
+          <t>Pizzeria L'acquolina In Bocca is an Italian cusine restaurant in hammamet. Located on ave de la Republique, this restaurant is known for its pizzas. Rated 4.1/5 stars, this restaurant is open from 10:00 - 02:00, daily.</t>
         </is>
       </c>
     </row>
@@ -14944,9 +14828,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Restaurant Bedwina located at CH28+983 Restaurant Bedwina, Hammamet Sud. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. 
-It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 36.404912, 10.5717754.</t>
+          <t>Restaurant Bedwina is a local restaurant in hammamet Sud that serves Moroccan dishes. With a 4.6 stars rating on Google based on 20 reviews, the restaurant offers a great culinary experience in a comfortable atmosphere and it is a great destination for those who are looking for local restaurants. As for its geolocation, Restaurant Bedwina can be found on (36.404912, 10.5717754).</t>
         </is>
       </c>
     </row>
@@ -15053,7 +14935,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Restaurant Carthage Hammamet Centre located at Ave. de la Republique, Hammamet. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on None. To get there, use these GPS coordinates: 36.398210134218, 10.615591031269. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61554824802891 or call them at 51 066 077.</t>
+          <t>Restaurant Carthage Hammamet Centre is a highly rated restaurant located at Ave. de la Republique in Hammamet. It features a 4.8-star rating based on 17 reviews and is known for its excellent service and delicious food. To learn more about Restaurant Carthage Hammamet Centre, visit their website or Facebook page, or call them directly at 51 066 077.</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15034,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a great restaurant, check out Fricasse chez Jalel located at CJ43+676. This top-rated destination is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Fricass%C3%A9+chez+Jalel/data=!4m7!3m6!1s0x12fd61cda6b4c6b7:0x20f67eef3cdd5c0d!8m2!3d36.4055354!4d10.6031343!16s%2Fg%2F11f6npdysk!19sChIJt8a0ps1h_RIRDVzdPO9-9iA?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Fricasse chez Jalel is a restaurant located in Hammamet, Tunisia at coordinates (36.3961922, 10.6141188). This highly-rated restaurant with 4.1 out of 5 stars based on 13 reviews offers a cozy ambience for dining. It is open from 11:00 AM to midnight every day and specializes in serving delectable cuisine.</t>
         </is>
       </c>
     </row>
@@ -15251,7 +15133,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Cap Azur located at Avenue Assad ibn fourat, 145 Rte Touristique, Hammamet. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:30-23:30. To get there, use these GPS coordinates: 36.400878638104, 10.62697931399.</t>
+          <t>Cap Azur is a restaurant located in Hammamet, Tunisia, offering a wide selection of dishes specializing in seafood. It boasts an impressive rating of 4.7 based on customer reviews, indicating its popularity and high quality of service. The restaurant is open from 7:30 AM to 11:30 PM, providing ample time for diners to enjoy their meals. Due to its prime location, Cap Azur is easily accessible and welcomes customers with its inviting ambiance and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -15354,7 +15236,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Restaurant, check out Cafeteria Mon Plaisir located at CJ2J+W3F Cafeteria Mon Plaisir, Rte Touristique, Hammamet. This must-visit spot offers a range of Restaurant to choose from and has a rating of 4.8. It's open during these hours: 07:00-21:00. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9t%C3%A9ria+Mon+Plaisir/data=!4m7!3m6!1s0x13029f03d6002af3:0x4f5d63894709d77c!8m2!3d36.402322!4d10.6301722!16s%2Fg%2F11f8ckrz5d!19sChIJ8yoA1gOfAhMRfNcJR4ljXU8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 508 559.</t>
+          <t>Located at 36.3961922, 10.6141188, Cafeteria Mon Plaisir is a well-rated restaurant in Hammamet with an average score of 4.8 based on 9 reviews. Operating daily from 7 AM to 9 PM, the restaurant specializes in Tunisian cuisine and offers a pleasant dining experience for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -15449,7 +15331,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out La Canari located at CJ4C+VXX La Canari, Hammamet. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.3961922, 10.6141188.</t>
+          <t>La Canari is a highly-rated restaurant in Hammamet, Tunisia, with a 4.8 rating based on 4 reviews. It offers a dining experience in a cozy ambiance and is conveniently located at the coordinates (36.3961922, 10.6141188).</t>
         </is>
       </c>
     </row>
@@ -15556,8 +15438,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Chez Am Hsin located at Chez Am Hsin, 62 Avenue des Nations Unis, Hammamet, Hammamet 8050. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on mercredi. To get there, use these GPS coordinates: 36.405609900321, 10.600703000371. For more details, visit their website 
-at https://www.facebook.com/Chez-am-hsin-360328197438328/%3Fhc_location%3Dufi</t>
+          <t>Chez Am Hsin is a restaurant located in Hammamet, Tunisia. It is open 24 hours a day, except on Wednesdays, and offers a variety of dishes. The restaurant is highly rated, with an average of 5 stars out of 5. It is located at 62 Avenue des Nations Unis, Hammamet 8050, and can be contacted by phone at 20 332 463. The restaurant's website is https://www.facebook.com/Chez-am-hsin-360328197438328/%3Fhc_location%3Dufi, and its featured image is https://lh5.googleusercontent.com/p/AF1QipMsQ9yAmnIRV_MOP4iFXIm21wOxKTXU3XNmr0Ku=w493-h240-k-no.</t>
         </is>
       </c>
     </row>
@@ -15656,7 +15537,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Restaurant, check out L'orient located at CJ46+V89 L'orient, Hammamet. This must-visit spot has a rating of 4.5 and is open during these hours: 09:00-00:00.</t>
+          <t>L'orient is a restaurant located in Hammamet, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine and international fare. L'orient is located at 36.3961922, 10.6141188 and is open from 9:00 AM to midnight every day. It has received positive reviews from customers, with an average rating of 4.5 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -15759,7 +15640,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated dining experience, check out Restaurant Dar Lella at Patice Lumumba, Hammamet 8050. This restaurant is perfect for Restaurant enthusiasts and offers a wide variety of culinary delights to choose from. With a rating of 5.0, it's a must-visit spot for those seeking authentic cuisine. It's open during these hours: 09:00-00:00, but closed on . To get there, use these GPS coordinates: 36.4063226, 10.6029925. For more details, visit their website or call them at 55 249 872.</t>
+          <t>Restaurant Dar Lella is a highly-rated restaurant in Hammamet, Tunisia, with a 5.0 rating based on 2 reviews. It's located at Patice Lumumba, Hammamet 8050, and is open daily from 9:00 AM to midnight. The restaurant's phone number is 55 249 872.</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15747,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in hammamet and need a quick stop, check out TotalEnergies EL MREZKA located at Avenue Mrezga MC 28 Rte de Hammamet El Mrezka El Mrezka, 8000. With a rating of 3.7, this top-rated destination is perfect for gas station lovers. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://services.totalenergies.tn/ or call them at 72 262 270.</t>
+          <t>TotalEnergies EL MREZKA is a gas station located in hammamet, Tunisia. It offers a 24-hour service and has a rating of 3.7 out of 5 based on 32 reviews. The gas station is situated at the coordinates (36.443102, 10.716336) and has a website at https://services.totalenergies.tn/. It is owned by TotalEnergies EL MREZKA (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15850,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Station-service, check out TotalEnergies - NABEUL located at Rte Periph. Nabeul - Hammamet, Nabeul 8000. With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.4697157, 10.6370242. For more details, visit their website at https://services.totalenergies.tn/</t>
+          <t>**TotalEnergies - NABEUL** is a gas station located in Nabeul, Tunisia. It is open 24 hours a day and offers a wide range of services, including fuel, convenience store items, and car wash. The gas station is conveniently located near the Rte Periph. Nabeul - Hammamet, making it easy to access for both locals and visitors. The station has a rating of 4.3 out of 5 stars on Google, indicating that it is a popular and well-regarded establishment.</t>
         </is>
       </c>
     </row>
@@ -16064,7 +15945,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in hammamet, you should visit Hammamet Azur located at Hammamet Azur, C28, Hammamet. This Gare routiere with a rating of 2.3 is a must-visit spot for Gare routiere lovers. To get there, use these GPS coordinates: 36.4, 10.61667.</t>
+          <t>Hammamet Azur is a bus station located in Hammamet, Tunisia, at coordinates (36.4, 10.61667). It offers connectivity to various destinations in the region and has received an average rating of 2.3 based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -16163,7 +16044,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out OLA located at CJ4J+8QJ OLA, Hammamet. This top-rated destination is perfect for Station-service lovers. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.3961922, 10.6141188. For more details, call them at 94 570 056.</t>
+          <t>OLA is a gas station located in Hammamet, Tunisia. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near several major roads, making it easy to get to. The gas station is also open 24 hours a day, so it's always convenient to stop by.</t>
         </is>
       </c>
     </row>
@@ -16258,7 +16139,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Hammamet located at Hammamet. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.3961922, 10.6141188.</t>
+          <t>Hammamet is a city located in northern Tunisia, on the Gulf of Hammamet. It is a popular tourist destination, known for its beautiful beaches, clear waters, and historic sites. The city is home to a number of hotels, restaurants, and shops, as well as a vibrant nightlife scene. Hammamet is also a popular destination for golfers, with several championship golf courses nearby. The city is located at 36.3961922 latitude and 10.6141188 longitude.</t>
         </is>
       </c>
     </row>
@@ -16353,7 +16234,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in Hammamet and looking for a reliable transportation service, check out Station Louage Vers Tunis located at Av. Mongi Slim, Hammamet. This top-rated destination is perfect for travel enthusiasts and offers a range of transportation services to choose from. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.402554857387, 10.615203673372. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Vers+Tunis/data=!4m7!3m6!1s0x12fd61fe98a3bdc7:0xf54343d8d4d79b7!8m2!3d36.3994533!4d10.6154617!16s%2Fg%2F11c5s85_l4!19sChIJx72jmP5h_RIRt3lNjT00VA8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Station Louage Vers Tunis is a transport service located in Hammamet, Tunisia. It offers 3.5-star rated services at a longitude and latitude of 10.615203673372, 36.402554857387 respectively. You can get more information about the services it offers by visiting its website.</t>
         </is>
       </c>
     </row>
@@ -16456,7 +16337,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a reliable gas station, check out TOTAL HAMMAMET located at CJ49+927 TOTAL HAMMAMET, C28, Hammamet. This top-rated destination is perfect for drivers and offers a range of services to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at http://www.total.tn/ or call them at 40 809 017.</t>
+          <t>TOTAL HAMMAMET is a gas station located in Hammamet, Tunisia, at the coordinates (36.4, 10.61667). It offers a variety of services, including fuel, convenience store items, and car wash. The gas station is open 24 hours a day, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -16559,9 +16440,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in hammamet and in search of a reliable bus transportation service, consider Bus Station Hammamet ville, located at 22-30 Ave. de la Republique, Hammamet. 
-This reputable establishment is renowned for providing trusted bus and coach transportation services. The station offers a centrally-accessible location, making it convenient for commuters and travelers alike. 
-With a rating of 3.3, Bus Station Hammamet ville is a preferred choice among locals. For inquiries or more details, please visit their website at https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=http://www.srtgn.com.tn/site/ar/template.php%3Fcode%3D22&amp;ved=2ahUKEwjuwqz1wN_jAhWB3OAKHTgUDFgQFjAAegQIARAB&amp;usg=AOvVaw0T_zgV2atfr5_JR1CHnKKX or call them at 72 233 200.</t>
+          <t>Bus Station Hammamet ville is a transport company located in Hammamet, Tunisia. It offers bus and coach transportation services. The station is situated on 22-30 Ave. de la Republique in Hammamet, with coordinates (36.396393620594, 10.61441545869). It is a popular destination for tourists and locals alike, and offers a convenient way to get around the city and surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16539,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a station de taxis, check out Station de bus Manaret el Hammamet located at CH36+WRF Station de bus Manaret el Hammamet, Av. Mohamed V, Hammamet Sud. With a rating of 2.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, call them at 94 270 005.</t>
+          <t>Station de bus Manaret el Hammamet is a taxi station located in Hammamet, Tunisia with the coordinates (36.4, 10.61667). It has a rating of 2.9 based on 14 reviews, and its main category is "Station de taxis".</t>
         </is>
       </c>
     </row>
@@ -16755,7 +16634,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated Gare routiere, check out Hammamet Azur located at Hammamet Azur, C28, Hammamet. This destination is perfect for Gare routiere lovers and has a rating of 2.3. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.4, 10.61667. For more details, visit their website at https://www.google.com/maps/place/Hammamet+Azur/data=!4m7!3m6!1s0x13029e10febd2bb9:0x118069cca1204d22!8m2!3d36.4065225!4d10.6334686!16s%2Fg%2F11bbrhv4s3!19sChIJuSu9_hCeAhMRIk0gocxpgBE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Hammamet Azur** is a bus station located in the city of Hammamet, Tunisia. It offers transportation services with 6 reviews and a 2.3 rating.</t>
         </is>
       </c>
     </row>
@@ -16858,10 +16737,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for something fun to do, check out Bus Station Hammamet ville located at 22-30 Ave. de la Republique, Hammamet. 
-This top-rated destination is perfect for Societe de transport en bus et autocar lovers and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.396393620594, 10.61441545869. For more details, visit their website at https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=http://www.srtgn.com.tn/site/ar/template.php%3Fcode%3D22&amp;ved=2ahUKEwjuwqz1wN_jAhWB3OAKHTgUDFgQFjAAegQIARAB&amp;usg=AOvVaw0T_zgV2atfr5_JR1CHnKKX or call them at 72 233 200.</t>
+          <t>Bus Station Hammamet ville is a bus station located in the city of Hammamet, Tunisia. It is located at 22-30 Ave. de la Republique. The station is owned by Bus Station Hammamet ville (proprietaire) and offers bus transportation services. It has a rating of 3.3 out of 5 based on 15 reviews. A phone number, 72 233 200, and a website, http://www.srtgn.com.tn/site/ar/template.php?code=22, are provided for further information and inquiries.</t>
         </is>
       </c>
     </row>
@@ -16964,7 +16840,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in hammamet and looking for a top-rated gas station, check out TotalEnergies - NABEUL located at Rte Periph. Nabeul - Hammamet, Nabeul 8000. This popular destination offers a range of services for your convenience. With a rating of 4.3 and open 24 hours a day, it's a must-visit spot. For more details, visit their website at https://services.totalenergies.tn/ or call them at .</t>
+          <t>TotalEnergies - NABEUL is a 4.3-rated gas station located at Rte Periph. Nabeul - Hammamet, Nabeul 8000. It offers 24/7 service and has positive user reviews. The gas station is conveniently located in the heart of Hammamet, near the beach and popular tourist destinations, making it a convenient stop for travelers and locals alike.</t>
         </is>
       </c>
     </row>
